--- a/REGULAR/DSWD/CALANOG, ALMA P..xlsx
+++ b/REGULAR/DSWD/CALANOG, ALMA P..xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\DSWD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\DSWD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="252">
   <si>
     <t>PERIOD</t>
   </si>
@@ -787,6 +787,9 @@
   </si>
   <si>
     <t>UT(0-2-46)</t>
+  </si>
+  <si>
+    <t>7/26,31/2023</t>
   </si>
 </sst>
 </file>
@@ -1632,7 +1635,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1675,7 +1678,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1739,7 +1742,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1799,7 +1802,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1865,7 +1868,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1928,7 +1931,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2026,7 +2029,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2085,7 +2088,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2150,7 +2153,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2193,7 +2196,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2268,7 +2271,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2454,7 +2457,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2520,7 +2523,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2578,7 +2581,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2644,7 +2647,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2700,7 +2703,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2775,7 +2778,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2818,7 +2821,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2884,7 +2887,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2940,7 +2943,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3038,7 +3041,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3101,7 +3104,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3548,9 +3551,9 @@
   <dimension ref="A2:K353"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A318" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A336" activePane="bottomLeft"/>
       <selection activeCell="D12" sqref="D12"/>
-      <selection pane="bottomLeft" activeCell="F329" sqref="F329"/>
+      <selection pane="bottomLeft" activeCell="I349" sqref="I349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3713,7 +3716,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="12">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>44.544999999999931</v>
+        <v>45.794999999999931</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="12" t="str">
@@ -3723,7 +3726,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="12">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>140</v>
+        <v>139.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="18"/>
@@ -11319,13 +11322,15 @@
       <c r="B348" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C348" s="12"/>
+      <c r="C348" s="12">
+        <v>1.25</v>
+      </c>
       <c r="D348" s="37"/>
       <c r="E348" s="9"/>
       <c r="F348" s="18"/>
-      <c r="G348" s="12" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G348" s="12">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H348" s="37"/>
       <c r="I348" s="9"/>
@@ -11338,7 +11343,9 @@
       <c r="A349" s="38">
         <v>45139</v>
       </c>
-      <c r="B349" s="18"/>
+      <c r="B349" s="18" t="s">
+        <v>55</v>
+      </c>
       <c r="C349" s="12"/>
       <c r="D349" s="37"/>
       <c r="E349" s="9"/>
@@ -11347,10 +11354,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H349" s="37"/>
+      <c r="H349" s="37">
+        <v>2</v>
+      </c>
       <c r="I349" s="9"/>
       <c r="J349" s="11"/>
-      <c r="K349" s="18"/>
+      <c r="K349" s="18" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="38">
@@ -11596,7 +11607,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="46">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>184.54499999999993</v>
+        <v>185.04499999999993</v>
       </c>
       <c r="C7" s="35">
         <v>1</v>

--- a/REGULAR/DSWD/CALANOG, ALMA P..xlsx
+++ b/REGULAR/DSWD/CALANOG, ALMA P..xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\DSWD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\DSWD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="253">
   <si>
     <t>PERIOD</t>
   </si>
@@ -790,6 +790,9 @@
   </si>
   <si>
     <t>7/26,31/2023</t>
+  </si>
+  <si>
+    <t>9/4-5/2023</t>
   </si>
 </sst>
 </file>
@@ -1635,7 +1638,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1678,7 +1681,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1742,7 +1745,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1802,7 +1805,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1868,7 +1871,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1931,7 +1934,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2029,7 +2032,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2088,7 +2091,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2153,7 +2156,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2196,7 +2199,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2271,7 +2274,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2457,7 +2460,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2523,7 +2526,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2581,7 +2584,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2647,7 +2650,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2703,7 +2706,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2778,7 +2781,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2821,7 +2824,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2887,7 +2890,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2943,7 +2946,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3041,7 +3044,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3104,7 +3107,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3553,7 +3556,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A336" activePane="bottomLeft"/>
       <selection activeCell="D12" sqref="D12"/>
-      <selection pane="bottomLeft" activeCell="I349" sqref="I349"/>
+      <selection pane="bottomLeft" activeCell="I350" sqref="I350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3716,7 +3719,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="12">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>45.794999999999931</v>
+        <v>47.044999999999931</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="12" t="str">
@@ -3726,7 +3729,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="12">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>139.25</v>
+        <v>138.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="18"/>
@@ -11346,13 +11349,15 @@
       <c r="B349" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C349" s="12"/>
+      <c r="C349" s="12">
+        <v>1.25</v>
+      </c>
       <c r="D349" s="37"/>
       <c r="E349" s="9"/>
       <c r="F349" s="18"/>
-      <c r="G349" s="12" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G349" s="12">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H349" s="37">
         <v>2</v>
@@ -11367,7 +11372,9 @@
       <c r="A350" s="38">
         <v>45170</v>
       </c>
-      <c r="B350" s="18"/>
+      <c r="B350" s="18" t="s">
+        <v>55</v>
+      </c>
       <c r="C350" s="12"/>
       <c r="D350" s="37"/>
       <c r="E350" s="9"/>
@@ -11376,10 +11383,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H350" s="37"/>
+      <c r="H350" s="37">
+        <v>2</v>
+      </c>
       <c r="I350" s="9"/>
       <c r="J350" s="11"/>
-      <c r="K350" s="18"/>
+      <c r="K350" s="18" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="38">
@@ -11607,7 +11618,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="46">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>185.04499999999993</v>
+        <v>185.54499999999993</v>
       </c>
       <c r="C7" s="35">
         <v>1</v>

--- a/REGULAR/DSWD/CALANOG, ALMA P..xlsx
+++ b/REGULAR/DSWD/CALANOG, ALMA P..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="258">
   <si>
     <t>PERIOD</t>
   </si>
@@ -805,6 +805,9 @@
   </si>
   <si>
     <t>12/15,22,26,28/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -1650,7 +1653,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1693,7 +1696,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1757,7 +1760,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1817,7 +1820,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1883,7 +1886,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1946,7 +1949,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2044,7 +2047,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2103,7 +2106,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2168,7 +2171,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2211,7 +2214,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2286,7 +2289,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2472,7 +2475,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2538,7 +2541,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2596,7 +2599,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2662,7 +2665,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2718,7 +2721,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2793,7 +2796,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2836,7 +2839,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2902,7 +2905,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2958,7 +2961,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3056,7 +3059,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3119,7 +3122,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3185,7 +3188,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K357" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K370" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3563,12 +3566,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K357"/>
+  <dimension ref="A2:K370"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A336" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A346" activePane="bottomLeft"/>
       <selection activeCell="D12" sqref="D12"/>
-      <selection pane="bottomLeft" activeCell="E350" sqref="E350"/>
+      <selection pane="bottomLeft" activeCell="D357" sqref="D357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3731,7 +3734,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="12">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>46.794999999999931</v>
+        <v>48.044999999999931</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="12" t="str">
@@ -3741,7 +3744,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="12">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>133.25</v>
+        <v>133.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="18"/>
@@ -11548,18 +11551,260 @@
         <v>45261</v>
       </c>
       <c r="B357" s="18"/>
-      <c r="C357" s="12"/>
+      <c r="C357" s="12">
+        <v>1.25</v>
+      </c>
       <c r="D357" s="37"/>
       <c r="E357" s="9"/>
       <c r="F357" s="18"/>
-      <c r="G357" s="12" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G357" s="12">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H357" s="37"/>
       <c r="I357" s="9"/>
       <c r="J357" s="11"/>
       <c r="K357" s="18"/>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A358" s="43" t="s">
+        <v>257</v>
+      </c>
+      <c r="B358" s="18"/>
+      <c r="C358" s="12"/>
+      <c r="D358" s="37"/>
+      <c r="E358" s="9"/>
+      <c r="F358" s="18"/>
+      <c r="G358" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H358" s="37"/>
+      <c r="I358" s="9"/>
+      <c r="J358" s="11"/>
+      <c r="K358" s="18"/>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A359" s="38">
+        <v>45292</v>
+      </c>
+      <c r="B359" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C359" s="12"/>
+      <c r="D359" s="37"/>
+      <c r="E359" s="9"/>
+      <c r="F359" s="18"/>
+      <c r="G359" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H359" s="37">
+        <v>1</v>
+      </c>
+      <c r="I359" s="9"/>
+      <c r="J359" s="11"/>
+      <c r="K359" s="44">
+        <v>45303</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A360" s="38">
+        <v>45323</v>
+      </c>
+      <c r="B360" s="18"/>
+      <c r="C360" s="12"/>
+      <c r="D360" s="37"/>
+      <c r="E360" s="9"/>
+      <c r="F360" s="18"/>
+      <c r="G360" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H360" s="37"/>
+      <c r="I360" s="9"/>
+      <c r="J360" s="11"/>
+      <c r="K360" s="18"/>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A361" s="38">
+        <v>45352</v>
+      </c>
+      <c r="B361" s="18"/>
+      <c r="C361" s="12"/>
+      <c r="D361" s="37"/>
+      <c r="E361" s="9"/>
+      <c r="F361" s="18"/>
+      <c r="G361" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H361" s="37"/>
+      <c r="I361" s="9"/>
+      <c r="J361" s="11"/>
+      <c r="K361" s="18"/>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A362" s="38">
+        <v>45383</v>
+      </c>
+      <c r="B362" s="18"/>
+      <c r="C362" s="12"/>
+      <c r="D362" s="37"/>
+      <c r="E362" s="9"/>
+      <c r="F362" s="18"/>
+      <c r="G362" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H362" s="37"/>
+      <c r="I362" s="9"/>
+      <c r="J362" s="11"/>
+      <c r="K362" s="18"/>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A363" s="38">
+        <v>45413</v>
+      </c>
+      <c r="B363" s="18"/>
+      <c r="C363" s="12"/>
+      <c r="D363" s="37"/>
+      <c r="E363" s="9"/>
+      <c r="F363" s="18"/>
+      <c r="G363" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H363" s="37"/>
+      <c r="I363" s="9"/>
+      <c r="J363" s="11"/>
+      <c r="K363" s="18"/>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A364" s="38">
+        <v>45444</v>
+      </c>
+      <c r="B364" s="18"/>
+      <c r="C364" s="12"/>
+      <c r="D364" s="37"/>
+      <c r="E364" s="9"/>
+      <c r="F364" s="18"/>
+      <c r="G364" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H364" s="37"/>
+      <c r="I364" s="9"/>
+      <c r="J364" s="11"/>
+      <c r="K364" s="18"/>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A365" s="38">
+        <v>45474</v>
+      </c>
+      <c r="B365" s="18"/>
+      <c r="C365" s="12"/>
+      <c r="D365" s="37"/>
+      <c r="E365" s="9"/>
+      <c r="F365" s="18"/>
+      <c r="G365" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H365" s="37"/>
+      <c r="I365" s="9"/>
+      <c r="J365" s="11"/>
+      <c r="K365" s="18"/>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A366" s="38">
+        <v>45505</v>
+      </c>
+      <c r="B366" s="18"/>
+      <c r="C366" s="12"/>
+      <c r="D366" s="37"/>
+      <c r="E366" s="9"/>
+      <c r="F366" s="18"/>
+      <c r="G366" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H366" s="37"/>
+      <c r="I366" s="9"/>
+      <c r="J366" s="11"/>
+      <c r="K366" s="18"/>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A367" s="38">
+        <v>45536</v>
+      </c>
+      <c r="B367" s="18"/>
+      <c r="C367" s="12"/>
+      <c r="D367" s="37"/>
+      <c r="E367" s="9"/>
+      <c r="F367" s="18"/>
+      <c r="G367" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H367" s="37"/>
+      <c r="I367" s="9"/>
+      <c r="J367" s="11"/>
+      <c r="K367" s="18"/>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A368" s="38">
+        <v>45566</v>
+      </c>
+      <c r="B368" s="18"/>
+      <c r="C368" s="12"/>
+      <c r="D368" s="37"/>
+      <c r="E368" s="9"/>
+      <c r="F368" s="18"/>
+      <c r="G368" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H368" s="37"/>
+      <c r="I368" s="9"/>
+      <c r="J368" s="11"/>
+      <c r="K368" s="18"/>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A369" s="38">
+        <v>45597</v>
+      </c>
+      <c r="B369" s="18"/>
+      <c r="C369" s="12"/>
+      <c r="D369" s="37"/>
+      <c r="E369" s="9"/>
+      <c r="F369" s="18"/>
+      <c r="G369" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H369" s="37"/>
+      <c r="I369" s="9"/>
+      <c r="J369" s="11"/>
+      <c r="K369" s="18"/>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A370" s="38">
+        <v>45627</v>
+      </c>
+      <c r="B370" s="18"/>
+      <c r="C370" s="12"/>
+      <c r="D370" s="37"/>
+      <c r="E370" s="9"/>
+      <c r="F370" s="18"/>
+      <c r="G370" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H370" s="37"/>
+      <c r="I370" s="9"/>
+      <c r="J370" s="11"/>
+      <c r="K370" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11733,7 +11978,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="46">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>180.04499999999993</v>
+        <v>181.54499999999993</v>
       </c>
       <c r="C7" s="35">
         <v>1</v>

--- a/REGULAR/DSWD/CALANOG, ALMA P..xlsx
+++ b/REGULAR/DSWD/CALANOG, ALMA P..xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\DSWD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\DSWD\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EF49B6-2CD5-47DC-ABDE-DB82F4DCBEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="259">
   <si>
     <t>PERIOD</t>
   </si>
@@ -808,12 +809,15 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>2/1,2/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1653,7 +1657,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1696,7 +1700,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1760,7 +1764,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1820,7 +1824,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1886,7 +1890,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1949,7 +1953,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2047,7 +2051,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2106,7 +2110,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2171,7 +2175,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2214,7 +2218,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2289,7 +2293,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2475,7 +2479,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2541,7 +2545,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2599,7 +2603,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2665,7 +2669,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2721,7 +2725,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2796,7 +2800,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2839,7 +2843,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2905,7 +2909,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2961,7 +2965,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3059,7 +3063,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3122,7 +3126,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3171,7 +3175,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3188,25 +3192,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K370" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K370" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3218,13 +3222,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3233,14 +3237,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3544,7 +3548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3554,7 +3558,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3562,34 +3566,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K370"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A346" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A347" activePane="bottomLeft"/>
       <selection activeCell="D12" sqref="D12"/>
-      <selection pane="bottomLeft" activeCell="D357" sqref="D357"/>
+      <selection pane="bottomLeft" activeCell="B361" sqref="B361"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="28" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="28" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="28" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>9</v>
       </c>
@@ -3610,7 +3614,7 @@
       <c r="J2" s="49"/>
       <c r="K2" s="50"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>15</v>
       </c>
@@ -3630,7 +3634,7 @@
       <c r="J3" s="51"/>
       <c r="K3" s="52"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>16</v>
       </c>
@@ -3652,7 +3656,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
       <c r="H5" s="25" t="s">
         <v>18</v>
@@ -3660,7 +3664,7 @@
       <c r="I5" s="25"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
       <c r="B6" s="8"/>
       <c r="C6" s="29"/>
@@ -3673,7 +3677,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="17"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="47" t="s">
@@ -3690,7 +3694,7 @@
       <c r="J7" s="47"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3725,7 +3729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="21"/>
       <c r="B9" s="22" t="s">
         <v>23</v>
@@ -3734,7 +3738,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="12">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>48.044999999999931</v>
+        <v>49.294999999999931</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="12" t="str">
@@ -3744,12 +3748,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="12">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>133.5</v>
+        <v>134.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="18"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="43" t="s">
         <v>43</v>
       </c>
@@ -3771,7 +3775,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="18"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="38">
         <v>38565</v>
       </c>
@@ -3791,7 +3795,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="18"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="38">
         <v>38596</v>
       </c>
@@ -3811,7 +3815,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="18"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="38">
         <v>38626</v>
       </c>
@@ -3831,7 +3835,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="18"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="38">
         <v>38657</v>
       </c>
@@ -3851,7 +3855,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="18"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="38">
         <v>38687</v>
       </c>
@@ -3871,7 +3875,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="18"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="38"/>
       <c r="B16" s="18" t="s">
         <v>49</v>
@@ -3891,7 +3895,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="18"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
         <v>48</v>
       </c>
@@ -3913,7 +3917,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="18"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="38">
         <v>38718</v>
       </c>
@@ -3937,7 +3941,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="18"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="38">
         <v>38749</v>
       </c>
@@ -3957,7 +3961,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="18"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="38">
         <v>38777</v>
       </c>
@@ -3977,7 +3981,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="18"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="38">
         <v>38808</v>
       </c>
@@ -4001,7 +4005,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="18"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="38">
         <v>38838</v>
       </c>
@@ -4027,7 +4031,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="38"/>
       <c r="B23" s="18" t="s">
         <v>53</v>
@@ -4047,7 +4051,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="38"/>
       <c r="B24" s="18" t="s">
         <v>54</v>
@@ -4067,7 +4071,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="38"/>
       <c r="B25" s="18" t="s">
         <v>55</v>
@@ -4089,7 +4093,7 @@
         <v>38855</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="38"/>
       <c r="B26" s="18" t="s">
         <v>56</v>
@@ -4109,7 +4113,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="18"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="38">
         <v>38869</v>
       </c>
@@ -4135,7 +4139,7 @@
         <v>38867</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="38"/>
       <c r="B28" s="18" t="s">
         <v>57</v>
@@ -4157,7 +4161,7 @@
         <v>38894</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="38"/>
       <c r="B29" s="18" t="s">
         <v>58</v>
@@ -4177,7 +4181,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="18"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="38">
         <v>38899</v>
       </c>
@@ -4203,7 +4207,7 @@
         <v>38911</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="38"/>
       <c r="B31" s="18" t="s">
         <v>59</v>
@@ -4223,7 +4227,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="18"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="38">
         <v>38930</v>
       </c>
@@ -4249,7 +4253,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="38">
         <v>38961</v>
       </c>
@@ -4269,7 +4273,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="18"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="38">
         <v>38991</v>
       </c>
@@ -4293,7 +4297,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="18"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="38">
         <v>39022</v>
       </c>
@@ -4319,7 +4323,7 @@
         <v>39015</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="38"/>
       <c r="B36" s="18" t="s">
         <v>64</v>
@@ -4341,7 +4345,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="38"/>
       <c r="B37" s="18" t="s">
         <v>55</v>
@@ -4363,7 +4367,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="38">
         <v>39052</v>
       </c>
@@ -4383,7 +4387,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="18"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="43" t="s">
         <v>47</v>
       </c>
@@ -4405,7 +4409,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="18"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="38">
         <v>39083</v>
       </c>
@@ -4429,7 +4433,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="18"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="38">
         <v>39114</v>
       </c>
@@ -4451,7 +4455,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="18"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="38"/>
       <c r="B42" s="18" t="s">
         <v>57</v>
@@ -4475,7 +4479,7 @@
         <v>39115</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="38"/>
       <c r="B43" s="18" t="s">
         <v>69</v>
@@ -4499,7 +4503,7 @@
         <v>39133</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="38">
         <v>39142</v>
       </c>
@@ -4525,7 +4529,7 @@
         <v>39126</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="38"/>
       <c r="B45" s="18" t="s">
         <v>70</v>
@@ -4547,7 +4551,7 @@
         <v>39170</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="38"/>
       <c r="B46" s="18" t="s">
         <v>57</v>
@@ -4569,7 +4573,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="38">
         <v>39173</v>
       </c>
@@ -4595,7 +4599,7 @@
         <v>39214</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="38"/>
       <c r="B48" s="18" t="s">
         <v>73</v>
@@ -4617,7 +4621,7 @@
         <v>39204</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="38">
         <v>39203</v>
       </c>
@@ -4643,7 +4647,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="38"/>
       <c r="B50" s="18" t="s">
         <v>77</v>
@@ -4667,7 +4671,7 @@
         <v>39245</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="38">
         <v>39234</v>
       </c>
@@ -4691,7 +4695,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="18"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="38"/>
       <c r="B52" s="18" t="s">
         <v>72</v>
@@ -4711,7 +4715,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="18"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="38">
         <v>39264</v>
       </c>
@@ -4737,7 +4741,7 @@
         <v>39266</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="38">
         <v>39295</v>
       </c>
@@ -4761,7 +4765,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="18"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="38">
         <v>39326</v>
       </c>
@@ -4787,7 +4791,7 @@
         <v>39329</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="38"/>
       <c r="B56" s="18" t="s">
         <v>52</v>
@@ -4809,7 +4813,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="38"/>
       <c r="B57" s="18" t="s">
         <v>78</v>
@@ -4829,7 +4833,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="18"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="38">
         <v>39356</v>
       </c>
@@ -4853,7 +4857,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="18"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="38">
         <v>39387</v>
       </c>
@@ -4879,7 +4883,7 @@
         <v>39385</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="38"/>
       <c r="B60" s="18" t="s">
         <v>80</v>
@@ -4901,7 +4905,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="38">
         <v>39417</v>
       </c>
@@ -4925,7 +4929,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="38"/>
       <c r="B62" s="18" t="s">
         <v>82</v>
@@ -4945,7 +4949,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="18"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="43" t="s">
         <v>46</v>
       </c>
@@ -4967,7 +4971,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="18"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="38">
         <v>39448</v>
       </c>
@@ -4993,7 +4997,7 @@
         <v>39451</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="38"/>
       <c r="B65" s="18" t="s">
         <v>86</v>
@@ -5013,7 +5017,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="18"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="38">
         <v>39479</v>
       </c>
@@ -5039,7 +5043,7 @@
         <v>39486</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="38"/>
       <c r="B67" s="18" t="s">
         <v>87</v>
@@ -5059,7 +5063,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="18"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="38">
         <v>39508</v>
       </c>
@@ -5085,7 +5089,7 @@
         <v>39513</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="38"/>
       <c r="B69" s="18" t="s">
         <v>88</v>
@@ -5105,7 +5109,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="18"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="38">
         <v>39539</v>
       </c>
@@ -5129,7 +5133,7 @@
         <v>39547</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="38"/>
       <c r="B71" s="18" t="s">
         <v>55</v>
@@ -5151,7 +5155,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="38"/>
       <c r="B72" s="18" t="s">
         <v>89</v>
@@ -5171,7 +5175,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="18"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="38">
         <v>39569</v>
       </c>
@@ -5195,7 +5199,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="18"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="38"/>
       <c r="B74" s="18" t="s">
         <v>55</v>
@@ -5217,7 +5221,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="38">
         <v>39600</v>
       </c>
@@ -5241,7 +5245,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="18"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="38">
         <v>39630</v>
       </c>
@@ -5265,7 +5269,7 @@
         <v>39643</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="38"/>
       <c r="B77" s="18" t="s">
         <v>94</v>
@@ -5285,7 +5289,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="18"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="38">
         <v>39661</v>
       </c>
@@ -5309,7 +5313,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="18"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="38">
         <v>39692</v>
       </c>
@@ -5335,7 +5339,7 @@
         <v>39693</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="38"/>
       <c r="B80" s="18" t="s">
         <v>96</v>
@@ -5355,7 +5359,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="18"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="38">
         <v>39722</v>
       </c>
@@ -5381,7 +5385,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="38">
         <v>39753</v>
       </c>
@@ -5405,7 +5409,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="18"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="38"/>
       <c r="B83" s="18" t="s">
         <v>99</v>
@@ -5425,7 +5429,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="18"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="38">
         <v>39783</v>
       </c>
@@ -5453,7 +5457,7 @@
         <v>39787</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="38"/>
       <c r="B85" s="18" t="s">
         <v>100</v>
@@ -5473,7 +5477,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="18"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="43" t="s">
         <v>45</v>
       </c>
@@ -5495,7 +5499,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="18"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="38">
         <v>39814</v>
       </c>
@@ -5519,7 +5523,7 @@
         <v>39846</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="38"/>
       <c r="B88" s="18" t="s">
         <v>103</v>
@@ -5539,7 +5543,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="18"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="38">
         <v>39845</v>
       </c>
@@ -5563,7 +5567,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="18"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="38">
         <v>39873</v>
       </c>
@@ -5589,7 +5593,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="38"/>
       <c r="B91" s="18" t="s">
         <v>52</v>
@@ -5611,7 +5615,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="38"/>
       <c r="B92" s="18" t="s">
         <v>106</v>
@@ -5631,7 +5635,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="18"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="38">
         <v>39904</v>
       </c>
@@ -5657,7 +5661,7 @@
         <v>39910</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="38"/>
       <c r="B94" s="18" t="s">
         <v>107</v>
@@ -5677,7 +5681,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="18"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="38">
         <v>39934</v>
       </c>
@@ -5703,7 +5707,7 @@
         <v>39960</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="38"/>
       <c r="B96" s="18" t="s">
         <v>110</v>
@@ -5723,7 +5727,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="18"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="38">
         <v>39965</v>
       </c>
@@ -5749,7 +5753,7 @@
         <v>39986</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="38"/>
       <c r="B98" s="18" t="s">
         <v>57</v>
@@ -5771,7 +5775,7 @@
         <v>39993</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="38"/>
       <c r="B99" s="18" t="s">
         <v>111</v>
@@ -5791,7 +5795,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="18"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="38">
         <v>39995</v>
       </c>
@@ -5817,7 +5821,7 @@
         <v>40018</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="38"/>
       <c r="B101" s="18" t="s">
         <v>112</v>
@@ -5837,7 +5841,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="18"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="38">
         <v>40026</v>
       </c>
@@ -5863,7 +5867,7 @@
         <v>40051</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="38"/>
       <c r="B103" s="18" t="s">
         <v>113</v>
@@ -5883,7 +5887,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="18"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="38">
         <v>40057</v>
       </c>
@@ -5909,7 +5913,7 @@
         <v>40059</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="38"/>
       <c r="B105" s="18" t="s">
         <v>57</v>
@@ -5931,7 +5935,7 @@
         <v>40081</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="38"/>
       <c r="B106" s="18" t="s">
         <v>70</v>
@@ -5951,7 +5955,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="18"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="38">
         <v>40087</v>
       </c>
@@ -5977,7 +5981,7 @@
         <v>40088</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="38"/>
       <c r="B108" s="18" t="s">
         <v>114</v>
@@ -5997,7 +6001,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="18"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="38">
         <v>40118</v>
       </c>
@@ -6023,7 +6027,7 @@
         <v>40141</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="38"/>
       <c r="B110" s="18" t="s">
         <v>57</v>
@@ -6045,7 +6049,7 @@
         <v>40149</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="38"/>
       <c r="B111" s="18" t="s">
         <v>115</v>
@@ -6065,7 +6069,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="18"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="38">
         <v>40148</v>
       </c>
@@ -6089,7 +6093,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="18"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="43" t="s">
         <v>44</v>
       </c>
@@ -6111,7 +6115,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="18"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="38">
         <v>40179</v>
       </c>
@@ -6135,7 +6139,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="18"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="38">
         <v>40210</v>
       </c>
@@ -6161,7 +6165,7 @@
         <v>40211</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="38"/>
       <c r="B116" s="18" t="s">
         <v>57</v>
@@ -6183,7 +6187,7 @@
         <v>40234</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="38"/>
       <c r="B117" s="18" t="s">
         <v>59</v>
@@ -6203,7 +6207,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="18"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="38">
         <v>40238</v>
       </c>
@@ -6227,7 +6231,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="18"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="38">
         <v>40269</v>
       </c>
@@ -6253,7 +6257,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="38"/>
       <c r="B120" s="18" t="s">
         <v>121</v>
@@ -6273,7 +6277,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="18"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="38">
         <v>40299</v>
       </c>
@@ -6299,7 +6303,7 @@
         <v>40312</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="38"/>
       <c r="B122" s="18" t="s">
         <v>57</v>
@@ -6321,7 +6325,7 @@
         <v>40318</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="38"/>
       <c r="B123" s="18" t="s">
         <v>57</v>
@@ -6343,7 +6347,7 @@
         <v>40326</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="38"/>
       <c r="B124" s="18" t="s">
         <v>122</v>
@@ -6363,7 +6367,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="18"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="38">
         <v>40330</v>
       </c>
@@ -6387,7 +6391,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="18"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="38">
         <v>40360</v>
       </c>
@@ -6413,7 +6417,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="38">
         <v>40391</v>
       </c>
@@ -6439,7 +6443,7 @@
         <v>40415</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="38">
         <v>40422</v>
       </c>
@@ -6459,7 +6463,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="18"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="38">
         <v>40452</v>
       </c>
@@ -6485,7 +6489,7 @@
         <v>40459</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="38">
         <v>40483</v>
       </c>
@@ -6511,7 +6515,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="38"/>
       <c r="B131" s="18" t="s">
         <v>124</v>
@@ -6533,7 +6537,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="38">
         <v>40513</v>
       </c>
@@ -6553,7 +6557,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="18"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="43" t="s">
         <v>119</v>
       </c>
@@ -6575,7 +6579,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="18"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="38">
         <v>40544</v>
       </c>
@@ -6601,7 +6605,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="38"/>
       <c r="B135" s="18" t="s">
         <v>129</v>
@@ -6621,7 +6625,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="18"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="38">
         <v>40575</v>
       </c>
@@ -6647,7 +6651,7 @@
         <v>40576</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="38"/>
       <c r="B137" s="18" t="s">
         <v>130</v>
@@ -6669,7 +6673,7 @@
         <v>42060</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="38"/>
       <c r="B138" s="18" t="s">
         <v>131</v>
@@ -6689,7 +6693,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="18"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="38">
         <v>40603</v>
       </c>
@@ -6715,7 +6719,7 @@
         <v>40631</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="38"/>
       <c r="B140" s="18" t="s">
         <v>132</v>
@@ -6735,7 +6739,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="18"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="38">
         <v>40634</v>
       </c>
@@ -6761,7 +6765,7 @@
         <v>40639</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="38"/>
       <c r="B142" s="18" t="s">
         <v>133</v>
@@ -6781,7 +6785,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="18"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="38">
         <v>40664</v>
       </c>
@@ -6807,7 +6811,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="38"/>
       <c r="B144" s="18" t="s">
         <v>55</v>
@@ -6829,7 +6833,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="38"/>
       <c r="B145" s="18" t="s">
         <v>134</v>
@@ -6849,7 +6853,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="18"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="38">
         <v>40695</v>
       </c>
@@ -6875,7 +6879,7 @@
         <v>40704</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="38"/>
       <c r="B147" s="18" t="s">
         <v>135</v>
@@ -6895,7 +6899,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="18"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="38">
         <v>40725</v>
       </c>
@@ -6921,7 +6925,7 @@
         <v>40738</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="38"/>
       <c r="B149" s="18" t="s">
         <v>136</v>
@@ -6941,7 +6945,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="18"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="38">
         <v>40756</v>
       </c>
@@ -6965,7 +6969,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="18"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="38">
         <v>40787</v>
       </c>
@@ -6991,7 +6995,7 @@
         <v>40807</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="38"/>
       <c r="B152" s="18" t="s">
         <v>141</v>
@@ -7011,7 +7015,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="18"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="38">
         <v>40817</v>
       </c>
@@ -7031,7 +7035,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="18"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="38">
         <v>40848</v>
       </c>
@@ -7057,7 +7061,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="38"/>
       <c r="B155" s="18" t="s">
         <v>142</v>
@@ -7077,7 +7081,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="18"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="38">
         <v>40878</v>
       </c>
@@ -7101,7 +7105,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="18"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="38"/>
       <c r="B157" s="18" t="s">
         <v>143</v>
@@ -7121,7 +7125,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="18"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="43" t="s">
         <v>118</v>
       </c>
@@ -7143,7 +7147,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="18"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="38">
         <v>40909</v>
       </c>
@@ -7169,7 +7173,7 @@
         <v>40926</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="38"/>
       <c r="B160" s="18" t="s">
         <v>55</v>
@@ -7191,7 +7195,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="38">
         <v>40940</v>
       </c>
@@ -7211,7 +7215,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="18"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="38">
         <v>40969</v>
       </c>
@@ -7237,7 +7241,7 @@
         <v>40998</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="38">
         <v>41000</v>
       </c>
@@ -7263,7 +7267,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="38">
         <v>41030</v>
       </c>
@@ -7283,7 +7287,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="18"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="38">
         <v>41061</v>
       </c>
@@ -7303,7 +7307,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="18"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="38">
         <v>41091</v>
       </c>
@@ -7329,7 +7333,7 @@
         <v>41113</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="38">
         <v>41122</v>
       </c>
@@ -7349,7 +7353,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="18"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="38">
         <v>41153</v>
       </c>
@@ -7369,7 +7373,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="18"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="38">
         <v>41183</v>
       </c>
@@ -7395,7 +7399,7 @@
         <v>41206</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="38">
         <v>41214</v>
       </c>
@@ -7415,7 +7419,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="18"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="38">
         <v>41244</v>
       </c>
@@ -7439,7 +7443,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="38"/>
       <c r="B172" s="18" t="s">
         <v>124</v>
@@ -7461,7 +7465,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="43" t="s">
         <v>117</v>
       </c>
@@ -7479,7 +7483,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="18"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="38">
         <v>41275</v>
       </c>
@@ -7503,7 +7507,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="38">
         <v>41306</v>
       </c>
@@ -7529,7 +7533,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="38">
         <v>41334</v>
       </c>
@@ -7549,7 +7553,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="18"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="38">
         <v>41365</v>
       </c>
@@ -7575,7 +7579,7 @@
         <v>41369</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="38">
         <v>41395</v>
       </c>
@@ -7601,7 +7605,7 @@
         <v>41415</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="38">
         <v>41426</v>
       </c>
@@ -7621,7 +7625,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="18"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="38">
         <v>41456</v>
       </c>
@@ -7647,7 +7651,7 @@
         <v>41465</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="38">
         <v>41487</v>
       </c>
@@ -7667,7 +7671,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="18"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="38">
         <v>41518</v>
       </c>
@@ -7693,7 +7697,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="38">
         <v>41548</v>
       </c>
@@ -7713,7 +7717,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="18"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="38">
         <v>41579</v>
       </c>
@@ -7733,7 +7737,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="18"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="38">
         <v>41609</v>
       </c>
@@ -7759,7 +7763,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="43" t="s">
         <v>147</v>
       </c>
@@ -7781,7 +7785,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="18"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="38">
         <v>41640</v>
       </c>
@@ -7807,7 +7811,7 @@
         <v>41670</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="38"/>
       <c r="B188" s="18" t="s">
         <v>158</v>
@@ -7829,7 +7833,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="38">
         <v>41671</v>
       </c>
@@ -7853,7 +7857,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="18"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="38">
         <v>41699</v>
       </c>
@@ -7879,7 +7883,7 @@
         <v>41711</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="38"/>
       <c r="B191" s="18" t="s">
         <v>57</v>
@@ -7901,7 +7905,7 @@
         <v>41726</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="38"/>
       <c r="B192" s="18" t="s">
         <v>160</v>
@@ -7921,7 +7925,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="18"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="38">
         <v>41730</v>
       </c>
@@ -7947,7 +7951,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="38"/>
       <c r="B194" s="18" t="s">
         <v>161</v>
@@ -7967,7 +7971,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="18"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="38">
         <v>41760</v>
       </c>
@@ -7993,7 +7997,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="38"/>
       <c r="B196" s="18" t="s">
         <v>162</v>
@@ -8013,7 +8017,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="18"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="38">
         <v>41791</v>
       </c>
@@ -8037,7 +8041,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="18"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="38">
         <v>41821</v>
       </c>
@@ -8063,7 +8067,7 @@
         <v>41824</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="38"/>
       <c r="B199" s="18" t="s">
         <v>68</v>
@@ -8083,7 +8087,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="38"/>
       <c r="B200" s="18" t="s">
         <v>168</v>
@@ -8103,7 +8107,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="18"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="38">
         <v>41852</v>
       </c>
@@ -8127,7 +8131,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="18"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="38">
         <v>41883</v>
       </c>
@@ -8151,7 +8155,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="18"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="38">
         <v>41913</v>
       </c>
@@ -8175,7 +8179,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="18"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="38">
         <v>41944</v>
       </c>
@@ -8199,7 +8203,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="38"/>
       <c r="B205" s="18" t="s">
         <v>130</v>
@@ -8219,7 +8223,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="18"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="38"/>
       <c r="B206" s="18" t="s">
         <v>172</v>
@@ -8239,7 +8243,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="18"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="38">
         <v>41974</v>
       </c>
@@ -8267,7 +8271,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="18"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="43" t="s">
         <v>146</v>
       </c>
@@ -8289,7 +8293,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="18"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="38">
         <v>42005</v>
       </c>
@@ -8315,7 +8319,7 @@
         <v>42354</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="38"/>
       <c r="B210" s="18" t="s">
         <v>57</v>
@@ -8337,7 +8341,7 @@
         <v>42032</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="38"/>
       <c r="B211" s="18" t="s">
         <v>175</v>
@@ -8357,7 +8361,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="18"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="38">
         <v>42036</v>
       </c>
@@ -8381,7 +8385,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="18"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="38">
         <v>42064</v>
       </c>
@@ -8407,7 +8411,7 @@
         <v>42090</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="38"/>
       <c r="B214" s="18" t="s">
         <v>177</v>
@@ -8427,7 +8431,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="18"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="38">
         <v>42095</v>
       </c>
@@ -8453,7 +8457,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="38"/>
       <c r="B216" s="18" t="s">
         <v>178</v>
@@ -8473,7 +8477,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="18"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="38">
         <v>42125</v>
       </c>
@@ -8497,7 +8501,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="18"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="38">
         <v>42156</v>
       </c>
@@ -8521,7 +8525,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="18"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="38">
         <v>42186</v>
       </c>
@@ -8545,7 +8549,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="38"/>
       <c r="B220" s="18" t="s">
         <v>182</v>
@@ -8565,7 +8569,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="18"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="38">
         <v>42217</v>
       </c>
@@ -8589,7 +8593,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="18"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="38">
         <v>42248</v>
       </c>
@@ -8613,7 +8617,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="18"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="38">
         <v>42278</v>
       </c>
@@ -8637,7 +8641,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="18"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="38">
         <v>42309</v>
       </c>
@@ -8663,7 +8667,7 @@
         <v>42313</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="38"/>
       <c r="B225" s="18" t="s">
         <v>57</v>
@@ -8685,7 +8689,7 @@
         <v>42321</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="38"/>
       <c r="B226" s="18" t="s">
         <v>98</v>
@@ -8707,7 +8711,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="38"/>
       <c r="B227" s="18" t="s">
         <v>81</v>
@@ -8727,7 +8731,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="38"/>
       <c r="B228" s="18" t="s">
         <v>186</v>
@@ -8747,7 +8751,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="18"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="38">
         <v>42339</v>
       </c>
@@ -8773,7 +8777,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="43" t="s">
         <v>145</v>
       </c>
@@ -8795,7 +8799,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="18"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="38">
         <v>42370</v>
       </c>
@@ -8821,7 +8825,7 @@
         <v>42396</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="38"/>
       <c r="B232" s="18" t="s">
         <v>57</v>
@@ -8843,7 +8847,7 @@
         <v>42412</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="38">
         <v>42401</v>
       </c>
@@ -8863,7 +8867,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="18"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="38">
         <v>42430</v>
       </c>
@@ -8889,7 +8893,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="38">
         <v>42461</v>
       </c>
@@ -8909,7 +8913,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="18"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="38">
         <v>42491</v>
       </c>
@@ -8933,7 +8937,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="38"/>
       <c r="B237" s="18" t="s">
         <v>196</v>
@@ -8955,7 +8959,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="38">
         <v>42522</v>
       </c>
@@ -8975,7 +8979,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="18"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="38">
         <v>42552</v>
       </c>
@@ -8995,7 +8999,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="18"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="38">
         <v>42583</v>
       </c>
@@ -9015,7 +9019,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="18"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="38">
         <v>42614</v>
       </c>
@@ -9035,7 +9039,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="18"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="38">
         <v>42644</v>
       </c>
@@ -9055,7 +9059,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="18"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="38">
         <v>42675</v>
       </c>
@@ -9075,7 +9079,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="18"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="38">
         <v>42705</v>
       </c>
@@ -9095,7 +9099,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="18"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="43" t="s">
         <v>195</v>
       </c>
@@ -9117,7 +9121,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="18"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="38">
         <v>42736</v>
       </c>
@@ -9137,7 +9141,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="18"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="38">
         <v>42767</v>
       </c>
@@ -9161,7 +9165,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="18"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="38">
         <v>42795</v>
       </c>
@@ -9181,7 +9185,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="18"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="38">
         <v>42826</v>
       </c>
@@ -9201,7 +9205,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="18"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="38">
         <v>42856</v>
       </c>
@@ -9221,7 +9225,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="18"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="38">
         <v>42887</v>
       </c>
@@ -9241,7 +9245,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="18"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="38">
         <v>42917</v>
       </c>
@@ -9261,7 +9265,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="18"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="38">
         <v>42948</v>
       </c>
@@ -9281,7 +9285,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="18"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="38">
         <v>42979</v>
       </c>
@@ -9301,7 +9305,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="18"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="38">
         <v>43009</v>
       </c>
@@ -9321,7 +9325,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="18"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="38">
         <v>43040</v>
       </c>
@@ -9341,7 +9345,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="18"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="38">
         <v>43070</v>
       </c>
@@ -9367,7 +9371,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="38"/>
       <c r="B258" s="18" t="s">
         <v>81</v>
@@ -9387,7 +9391,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="43" t="s">
         <v>194</v>
       </c>
@@ -9405,7 +9409,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="18"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="38">
         <v>43101</v>
       </c>
@@ -9431,7 +9435,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="38">
         <v>43132</v>
       </c>
@@ -9451,7 +9455,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="18"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="38">
         <v>43160</v>
       </c>
@@ -9477,7 +9481,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="38"/>
       <c r="B263" s="18" t="s">
         <v>68</v>
@@ -9497,7 +9501,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="38">
         <v>43191</v>
       </c>
@@ -9517,7 +9521,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="18"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="38">
         <v>43221</v>
       </c>
@@ -9537,7 +9541,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="18"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="38">
         <v>43252</v>
       </c>
@@ -9557,7 +9561,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="18"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="38">
         <v>43282</v>
       </c>
@@ -9577,7 +9581,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="18"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="38">
         <v>43313</v>
       </c>
@@ -9597,7 +9601,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="18"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="38">
         <v>43344</v>
       </c>
@@ -9617,7 +9621,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="18"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="38">
         <v>43374</v>
       </c>
@@ -9637,7 +9641,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="18"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="38">
         <v>43405</v>
       </c>
@@ -9663,7 +9667,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="38">
         <v>43435</v>
       </c>
@@ -9687,7 +9691,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="18"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="43" t="s">
         <v>193</v>
       </c>
@@ -9709,7 +9713,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="18"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="38">
         <v>43466</v>
       </c>
@@ -9729,7 +9733,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="18"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="38">
         <v>43497</v>
       </c>
@@ -9749,7 +9753,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="18"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="38">
         <v>43525</v>
       </c>
@@ -9769,7 +9773,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="18"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="38">
         <v>43556</v>
       </c>
@@ -9789,7 +9793,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="18"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="38">
         <v>43586</v>
       </c>
@@ -9809,7 +9813,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="18"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="38">
         <v>43617</v>
       </c>
@@ -9829,7 +9833,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="18"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="38">
         <v>43647</v>
       </c>
@@ -9849,7 +9853,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="18"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="38">
         <v>43678</v>
       </c>
@@ -9869,7 +9873,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="18"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="38">
         <v>43709</v>
       </c>
@@ -9889,7 +9893,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="18"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="38">
         <v>43739</v>
       </c>
@@ -9909,7 +9913,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="18"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="38">
         <v>43770</v>
       </c>
@@ -9929,7 +9933,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="18"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="38">
         <v>43800</v>
       </c>
@@ -9955,7 +9959,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="43" t="s">
         <v>192</v>
       </c>
@@ -9977,7 +9981,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="18"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="38">
         <v>43831</v>
       </c>
@@ -9997,7 +10001,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="18"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="38">
         <v>43862</v>
       </c>
@@ -10021,7 +10025,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="38">
         <v>43891</v>
       </c>
@@ -10041,7 +10045,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="18"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="38">
         <v>43922</v>
       </c>
@@ -10061,7 +10065,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="18"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="38">
         <v>43952</v>
       </c>
@@ -10081,7 +10085,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="18"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="38">
         <v>43983</v>
       </c>
@@ -10105,7 +10109,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="38">
         <v>44013</v>
       </c>
@@ -10127,7 +10131,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="18"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="38"/>
       <c r="B294" s="18" t="s">
         <v>98</v>
@@ -10149,7 +10153,7 @@
         <v>44039</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="38">
         <v>44044</v>
       </c>
@@ -10169,7 +10173,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="18"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="38">
         <v>44075</v>
       </c>
@@ -10193,7 +10197,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="38">
         <v>44105</v>
       </c>
@@ -10213,7 +10217,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="18"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="38">
         <v>44136</v>
       </c>
@@ -10233,7 +10237,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="18"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="38">
         <v>44166</v>
       </c>
@@ -10257,7 +10261,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="18"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="43" t="s">
         <v>213</v>
       </c>
@@ -10279,7 +10283,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="18"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="38">
         <v>44197</v>
       </c>
@@ -10299,7 +10303,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="18"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="38">
         <v>44228</v>
       </c>
@@ -10319,7 +10323,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="18"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="38">
         <v>44256</v>
       </c>
@@ -10339,7 +10343,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="18"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="38">
         <v>44287</v>
       </c>
@@ -10363,7 +10367,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="18"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="38">
         <v>44317</v>
       </c>
@@ -10383,7 +10387,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="18"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="38">
         <v>44348</v>
       </c>
@@ -10403,7 +10407,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="18"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="38">
         <v>44378</v>
       </c>
@@ -10423,7 +10427,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="18"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="38">
         <v>44409</v>
       </c>
@@ -10443,7 +10447,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="18"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="38">
         <v>44440</v>
       </c>
@@ -10463,7 +10467,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="18"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="38">
         <v>44470</v>
       </c>
@@ -10483,7 +10487,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="18"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="38">
         <v>44501</v>
       </c>
@@ -10503,7 +10507,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="18"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="38">
         <v>44531</v>
       </c>
@@ -10527,7 +10531,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="18"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="43" t="s">
         <v>212</v>
       </c>
@@ -10549,7 +10553,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="18"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="38">
         <v>44562</v>
       </c>
@@ -10569,7 +10573,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="18"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="38">
         <v>44593</v>
       </c>
@@ -10589,7 +10593,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="18"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="38">
         <v>44621</v>
       </c>
@@ -10615,7 +10619,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="38">
         <v>44652</v>
       </c>
@@ -10641,7 +10645,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="38">
         <v>44682</v>
       </c>
@@ -10667,7 +10671,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="38"/>
       <c r="B319" s="18" t="s">
         <v>240</v>
@@ -10687,7 +10691,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="18"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="38">
         <v>44713</v>
       </c>
@@ -10713,7 +10717,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="38"/>
       <c r="B321" s="18" t="s">
         <v>235</v>
@@ -10735,7 +10739,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="38"/>
       <c r="B322" s="18" t="s">
         <v>237</v>
@@ -10755,7 +10759,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="18"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="38">
         <v>44743</v>
       </c>
@@ -10781,7 +10785,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="38"/>
       <c r="B324" s="18" t="s">
         <v>91</v>
@@ -10801,7 +10805,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="18"/>
     </row>
-    <row r="325" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="38">
         <v>44774</v>
       </c>
@@ -10827,7 +10831,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="38">
         <v>44805</v>
       </c>
@@ -10853,7 +10857,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="38"/>
       <c r="B327" s="18" t="s">
         <v>57</v>
@@ -10875,7 +10879,7 @@
         <v>44820</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="38"/>
       <c r="B328" s="18" t="s">
         <v>70</v>
@@ -10895,7 +10899,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="44"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="38">
         <v>44835</v>
       </c>
@@ -10921,7 +10925,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="38"/>
       <c r="B330" s="18" t="s">
         <v>249</v>
@@ -10943,7 +10947,7 @@
         <v>45220</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="38"/>
       <c r="B331" s="18" t="s">
         <v>250</v>
@@ -10963,7 +10967,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="44"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="38">
         <v>44866</v>
       </c>
@@ -10989,7 +10993,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="38"/>
       <c r="B333" s="18" t="s">
         <v>232</v>
@@ -11011,7 +11015,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="38"/>
       <c r="B334" s="18" t="s">
         <v>247</v>
@@ -11031,7 +11035,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="18"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="38">
         <v>44896</v>
       </c>
@@ -11057,7 +11061,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="38"/>
       <c r="B336" s="18" t="s">
         <v>57</v>
@@ -11079,7 +11083,7 @@
         <v>44902</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="38"/>
       <c r="B337" s="18" t="s">
         <v>244</v>
@@ -11101,7 +11105,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="43" t="s">
         <v>217</v>
       </c>
@@ -11119,7 +11123,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="18"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="38">
         <v>44927</v>
       </c>
@@ -11145,7 +11149,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="38"/>
       <c r="B340" s="18" t="s">
         <v>57</v>
@@ -11167,7 +11171,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="38">
         <v>44958</v>
       </c>
@@ -11191,7 +11195,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="38">
         <v>44986</v>
       </c>
@@ -11211,7 +11215,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="18"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="38">
         <v>45017</v>
       </c>
@@ -11237,7 +11241,7 @@
         <v>44988</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="38">
         <v>45047</v>
       </c>
@@ -11263,7 +11267,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="38">
         <v>45078</v>
       </c>
@@ -11289,7 +11293,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="38"/>
       <c r="B346" s="18" t="s">
         <v>55</v>
@@ -11311,7 +11315,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="38"/>
       <c r="B347" s="18" t="s">
         <v>105</v>
@@ -11333,7 +11337,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="38">
         <v>45108</v>
       </c>
@@ -11357,7 +11361,7 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="38">
         <v>45139</v>
       </c>
@@ -11383,7 +11387,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="38">
         <v>45170</v>
       </c>
@@ -11409,7 +11413,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="38">
         <v>45200</v>
       </c>
@@ -11435,7 +11439,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="38"/>
       <c r="B352" s="18" t="s">
         <v>57</v>
@@ -11457,7 +11461,7 @@
         <v>45211</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="38"/>
       <c r="B353" s="18" t="s">
         <v>52</v>
@@ -11479,7 +11483,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="38"/>
       <c r="B354" s="18" t="s">
         <v>57</v>
@@ -11501,7 +11505,7 @@
         <v>45230</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="38">
         <v>45231</v>
       </c>
@@ -11527,7 +11531,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="38"/>
       <c r="B356" s="18" t="s">
         <v>105</v>
@@ -11546,7 +11550,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="38">
         <v>45261</v>
       </c>
@@ -11566,7 +11570,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="18"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="43" t="s">
         <v>257</v>
       </c>
@@ -11584,20 +11588,22 @@
       <c r="J358" s="11"/>
       <c r="K358" s="18"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="38">
         <v>45292</v>
       </c>
       <c r="B359" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C359" s="12"/>
+      <c r="C359" s="12">
+        <v>1.25</v>
+      </c>
       <c r="D359" s="37"/>
       <c r="E359" s="9"/>
       <c r="F359" s="18"/>
-      <c r="G359" s="12" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G359" s="12">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H359" s="37">
         <v>1</v>
@@ -11608,11 +11614,13 @@
         <v>45303</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="38">
         <v>45323</v>
       </c>
-      <c r="B360" s="18"/>
+      <c r="B360" s="18" t="s">
+        <v>81</v>
+      </c>
       <c r="C360" s="12"/>
       <c r="D360" s="37"/>
       <c r="E360" s="9"/>
@@ -11624,9 +11632,11 @@
       <c r="H360" s="37"/>
       <c r="I360" s="9"/>
       <c r="J360" s="11"/>
-      <c r="K360" s="18"/>
-    </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K360" s="18" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="38">
         <v>45352</v>
       </c>
@@ -11644,7 +11654,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="18"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="38">
         <v>45383</v>
       </c>
@@ -11662,7 +11672,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="18"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="38">
         <v>45413</v>
       </c>
@@ -11680,7 +11690,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="18"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="38">
         <v>45444</v>
       </c>
@@ -11698,7 +11708,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="18"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="38">
         <v>45474</v>
       </c>
@@ -11716,7 +11726,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="18"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="38">
         <v>45505</v>
       </c>
@@ -11734,7 +11744,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="18"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="38">
         <v>45536</v>
       </c>
@@ -11752,7 +11762,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="18"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="38">
         <v>45566</v>
       </c>
@@ -11770,7 +11780,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="18"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="38">
         <v>45597</v>
       </c>
@@ -11788,7 +11798,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="18"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="38">
         <v>45627</v>
       </c>
@@ -11821,10 +11831,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11847,7 +11857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -11855,21 +11865,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="35" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="35" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="57" t="s">
         <v>33</v>
       </c>
@@ -11882,7 +11892,7 @@
       <c r="K1" s="58"/>
       <c r="L1" s="58"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>24</v>
       </c>
@@ -11911,7 +11921,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>1.25</v>
       </c>
@@ -11941,17 +11951,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="31"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="45" t="s">
         <v>227</v>
       </c>
@@ -11975,10 +11985,10 @@
       <c r="K6" s="58"/>
       <c r="L6" s="58"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="46">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>181.54499999999993</v>
+        <v>184.04499999999993</v>
       </c>
       <c r="C7" s="35">
         <v>1</v>
@@ -12006,7 +12016,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="35">
         <v>2</v>
       </c>
@@ -12032,7 +12042,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="35">
         <v>3</v>
       </c>
@@ -12058,7 +12068,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="35">
         <v>4</v>
       </c>
@@ -12084,7 +12094,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="35">
         <v>5</v>
       </c>
@@ -12110,7 +12120,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="35">
         <v>6</v>
       </c>
@@ -12136,7 +12146,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="35">
         <v>7</v>
       </c>
@@ -12162,7 +12172,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="35">
         <v>8</v>
       </c>
@@ -12188,7 +12198,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="35">
         <v>9</v>
       </c>
@@ -12208,7 +12218,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="35">
         <v>10</v>
       </c>
@@ -12228,7 +12238,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="35">
         <v>11</v>
       </c>
@@ -12248,7 +12258,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="35">
         <v>12</v>
       </c>
@@ -12269,7 +12279,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="35">
         <v>13</v>
       </c>
@@ -12290,7 +12300,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="35">
         <v>14</v>
       </c>
@@ -12311,7 +12321,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="35">
         <v>15</v>
       </c>
@@ -12332,7 +12342,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="35">
         <v>16</v>
       </c>
@@ -12353,7 +12363,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="35">
         <v>17</v>
       </c>
@@ -12374,7 +12384,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="35">
         <v>18</v>
       </c>
@@ -12395,7 +12405,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="35">
         <v>19</v>
       </c>
@@ -12416,7 +12426,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="35">
         <v>20</v>
       </c>
@@ -12437,7 +12447,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="35">
         <v>21</v>
       </c>
@@ -12458,7 +12468,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="35">
         <v>22</v>
       </c>
@@ -12479,7 +12489,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="35">
         <v>23</v>
       </c>
@@ -12500,7 +12510,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="35">
         <v>24</v>
       </c>
@@ -12521,7 +12531,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="35">
         <v>25</v>
       </c>
@@ -12542,7 +12552,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="35">
         <v>26</v>
       </c>
@@ -12563,7 +12573,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="35">
         <v>27</v>
       </c>
@@ -12584,7 +12594,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="35">
         <v>28</v>
       </c>
@@ -12605,7 +12615,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="35">
         <v>29</v>
       </c>
@@ -12626,7 +12636,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="35">
         <v>30</v>
       </c>
@@ -12647,7 +12657,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="35">
         <v>31</v>
       </c>
@@ -12668,7 +12678,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="35">
         <v>32</v>
       </c>
@@ -12677,7 +12687,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="35">
         <v>33</v>
       </c>
@@ -12686,7 +12696,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="35">
         <v>34</v>
       </c>
@@ -12695,7 +12705,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="35">
         <v>35</v>
       </c>
@@ -12704,7 +12714,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="35">
         <v>36</v>
       </c>
@@ -12713,7 +12723,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="35">
         <v>37</v>
       </c>
@@ -12722,7 +12732,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="35">
         <v>38</v>
       </c>
@@ -12731,7 +12741,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="35">
         <v>39</v>
       </c>
@@ -12740,7 +12750,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="35">
         <v>40</v>
       </c>
@@ -12749,7 +12759,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="35">
         <v>41</v>
       </c>
@@ -12758,7 +12768,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="35">
         <v>42</v>
       </c>
@@ -12767,7 +12777,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="35">
         <v>43</v>
       </c>
@@ -12776,7 +12786,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="35">
         <v>44</v>
       </c>
@@ -12785,7 +12795,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="35">
         <v>45</v>
       </c>
@@ -12794,7 +12804,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="35">
         <v>46</v>
       </c>
@@ -12803,7 +12813,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="35">
         <v>47</v>
       </c>
@@ -12812,7 +12822,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="35">
         <v>48</v>
       </c>
@@ -12821,7 +12831,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="35">
         <v>49</v>
       </c>
@@ -12830,7 +12840,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="35">
         <v>50</v>
       </c>
@@ -12839,7 +12849,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="35">
         <v>51</v>
       </c>
@@ -12848,7 +12858,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="35">
         <v>52</v>
       </c>
@@ -12857,7 +12867,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="35">
         <v>53</v>
       </c>
@@ -12866,7 +12876,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="35">
         <v>54</v>
       </c>
@@ -12875,7 +12885,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="35">
         <v>55</v>
       </c>
@@ -12884,7 +12894,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="35">
         <v>56</v>
       </c>
@@ -12893,7 +12903,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="35">
         <v>57</v>
       </c>
@@ -12902,7 +12912,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="35">
         <v>58</v>
       </c>
@@ -12911,7 +12921,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="35">
         <v>59</v>
       </c>
@@ -12920,7 +12930,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="35">
         <v>60</v>
       </c>
@@ -12929,7 +12939,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/DSWD/CALANOG, ALMA P..xlsx
+++ b/REGULAR/DSWD/CALANOG, ALMA P..xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\DSWD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\DSWD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EF49B6-2CD5-47DC-ABDE-DB82F4DCBEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="259">
   <si>
     <t>PERIOD</t>
   </si>
@@ -817,7 +816,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1657,7 +1656,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1700,7 +1699,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1764,7 +1763,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1824,7 +1823,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1890,7 +1889,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1953,7 +1952,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2051,7 +2050,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2110,7 +2109,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2175,7 +2174,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2218,7 +2217,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2293,7 +2292,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2479,7 +2478,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2545,7 +2544,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2603,7 +2602,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2669,7 +2668,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2725,7 +2724,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2800,7 +2799,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2843,7 +2842,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2909,7 +2908,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2965,7 +2964,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3063,7 +3062,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3126,7 +3125,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3175,7 +3174,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3192,25 +3191,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K370" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K371" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3222,13 +3221,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3237,14 +3236,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3548,7 +3547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3558,7 +3557,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3566,34 +3565,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K370"/>
+  <dimension ref="A2:K371"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A347" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A347" activePane="bottomLeft"/>
       <selection activeCell="D12" sqref="D12"/>
-      <selection pane="bottomLeft" activeCell="B361" sqref="B361"/>
+      <selection pane="bottomLeft" activeCell="I361" sqref="I361"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="28" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="28" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="28" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>9</v>
       </c>
@@ -3614,7 +3613,7 @@
       <c r="J2" s="49"/>
       <c r="K2" s="50"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>15</v>
       </c>
@@ -3634,7 +3633,7 @@
       <c r="J3" s="51"/>
       <c r="K3" s="52"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>16</v>
       </c>
@@ -3656,7 +3655,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="H5" s="25" t="s">
         <v>18</v>
@@ -3664,7 +3663,7 @@
       <c r="I5" s="25"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="8"/>
       <c r="C6" s="29"/>
@@ -3677,7 +3676,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="17"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="47" t="s">
@@ -3694,7 +3693,7 @@
       <c r="J7" s="47"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3729,7 +3728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="22" t="s">
         <v>23</v>
@@ -3748,12 +3747,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="12">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>134.75</v>
+        <v>133.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="18"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
         <v>43</v>
       </c>
@@ -3775,7 +3774,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="18"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="38">
         <v>38565</v>
       </c>
@@ -3795,7 +3794,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="18"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="38">
         <v>38596</v>
       </c>
@@ -3815,7 +3814,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="18"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="38">
         <v>38626</v>
       </c>
@@ -3835,7 +3834,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="18"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
         <v>38657</v>
       </c>
@@ -3855,7 +3854,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="18"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="38">
         <v>38687</v>
       </c>
@@ -3875,7 +3874,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="18"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="18" t="s">
         <v>49</v>
@@ -3895,7 +3894,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="18"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
         <v>48</v>
       </c>
@@ -3917,7 +3916,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="18"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="38">
         <v>38718</v>
       </c>
@@ -3941,7 +3940,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="18"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="38">
         <v>38749</v>
       </c>
@@ -3961,7 +3960,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="18"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="38">
         <v>38777</v>
       </c>
@@ -3981,7 +3980,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="18"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="38">
         <v>38808</v>
       </c>
@@ -4005,7 +4004,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="18"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
         <v>38838</v>
       </c>
@@ -4031,7 +4030,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="38"/>
       <c r="B23" s="18" t="s">
         <v>53</v>
@@ -4051,7 +4050,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="38"/>
       <c r="B24" s="18" t="s">
         <v>54</v>
@@ -4071,7 +4070,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="38"/>
       <c r="B25" s="18" t="s">
         <v>55</v>
@@ -4093,7 +4092,7 @@
         <v>38855</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="38"/>
       <c r="B26" s="18" t="s">
         <v>56</v>
@@ -4113,7 +4112,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="18"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="38">
         <v>38869</v>
       </c>
@@ -4139,7 +4138,7 @@
         <v>38867</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="38"/>
       <c r="B28" s="18" t="s">
         <v>57</v>
@@ -4161,7 +4160,7 @@
         <v>38894</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="38"/>
       <c r="B29" s="18" t="s">
         <v>58</v>
@@ -4181,7 +4180,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="18"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="38">
         <v>38899</v>
       </c>
@@ -4207,7 +4206,7 @@
         <v>38911</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="38"/>
       <c r="B31" s="18" t="s">
         <v>59</v>
@@ -4227,7 +4226,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="18"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="38">
         <v>38930</v>
       </c>
@@ -4253,7 +4252,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="38">
         <v>38961</v>
       </c>
@@ -4273,7 +4272,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="18"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="38">
         <v>38991</v>
       </c>
@@ -4297,7 +4296,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="18"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="38">
         <v>39022</v>
       </c>
@@ -4323,7 +4322,7 @@
         <v>39015</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="38"/>
       <c r="B36" s="18" t="s">
         <v>64</v>
@@ -4345,7 +4344,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="38"/>
       <c r="B37" s="18" t="s">
         <v>55</v>
@@ -4367,7 +4366,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="38">
         <v>39052</v>
       </c>
@@ -4387,7 +4386,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="18"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="43" t="s">
         <v>47</v>
       </c>
@@ -4409,7 +4408,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="18"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="38">
         <v>39083</v>
       </c>
@@ -4433,7 +4432,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="18"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="38">
         <v>39114</v>
       </c>
@@ -4455,7 +4454,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="18"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="38"/>
       <c r="B42" s="18" t="s">
         <v>57</v>
@@ -4479,7 +4478,7 @@
         <v>39115</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="38"/>
       <c r="B43" s="18" t="s">
         <v>69</v>
@@ -4503,7 +4502,7 @@
         <v>39133</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="38">
         <v>39142</v>
       </c>
@@ -4529,7 +4528,7 @@
         <v>39126</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="38"/>
       <c r="B45" s="18" t="s">
         <v>70</v>
@@ -4551,7 +4550,7 @@
         <v>39170</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="38"/>
       <c r="B46" s="18" t="s">
         <v>57</v>
@@ -4573,7 +4572,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="38">
         <v>39173</v>
       </c>
@@ -4599,7 +4598,7 @@
         <v>39214</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
       <c r="B48" s="18" t="s">
         <v>73</v>
@@ -4621,7 +4620,7 @@
         <v>39204</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="38">
         <v>39203</v>
       </c>
@@ -4647,7 +4646,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="38"/>
       <c r="B50" s="18" t="s">
         <v>77</v>
@@ -4671,7 +4670,7 @@
         <v>39245</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="38">
         <v>39234</v>
       </c>
@@ -4695,7 +4694,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="18"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="38"/>
       <c r="B52" s="18" t="s">
         <v>72</v>
@@ -4715,7 +4714,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="18"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="38">
         <v>39264</v>
       </c>
@@ -4741,7 +4740,7 @@
         <v>39266</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="38">
         <v>39295</v>
       </c>
@@ -4765,7 +4764,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="18"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="38">
         <v>39326</v>
       </c>
@@ -4791,7 +4790,7 @@
         <v>39329</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="38"/>
       <c r="B56" s="18" t="s">
         <v>52</v>
@@ -4813,7 +4812,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="38"/>
       <c r="B57" s="18" t="s">
         <v>78</v>
@@ -4833,7 +4832,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="18"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="38">
         <v>39356</v>
       </c>
@@ -4857,7 +4856,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="18"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="38">
         <v>39387</v>
       </c>
@@ -4883,7 +4882,7 @@
         <v>39385</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="38"/>
       <c r="B60" s="18" t="s">
         <v>80</v>
@@ -4905,7 +4904,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="38">
         <v>39417</v>
       </c>
@@ -4929,7 +4928,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="38"/>
       <c r="B62" s="18" t="s">
         <v>82</v>
@@ -4949,7 +4948,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="18"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="43" t="s">
         <v>46</v>
       </c>
@@ -4971,7 +4970,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="18"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="38">
         <v>39448</v>
       </c>
@@ -4997,7 +4996,7 @@
         <v>39451</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="38"/>
       <c r="B65" s="18" t="s">
         <v>86</v>
@@ -5017,7 +5016,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="18"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="38">
         <v>39479</v>
       </c>
@@ -5043,7 +5042,7 @@
         <v>39486</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="38"/>
       <c r="B67" s="18" t="s">
         <v>87</v>
@@ -5063,7 +5062,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="18"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="38">
         <v>39508</v>
       </c>
@@ -5089,7 +5088,7 @@
         <v>39513</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="38"/>
       <c r="B69" s="18" t="s">
         <v>88</v>
@@ -5109,7 +5108,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="18"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="38">
         <v>39539</v>
       </c>
@@ -5133,7 +5132,7 @@
         <v>39547</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="38"/>
       <c r="B71" s="18" t="s">
         <v>55</v>
@@ -5155,7 +5154,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="38"/>
       <c r="B72" s="18" t="s">
         <v>89</v>
@@ -5175,7 +5174,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="18"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="38">
         <v>39569</v>
       </c>
@@ -5199,7 +5198,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="18"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="38"/>
       <c r="B74" s="18" t="s">
         <v>55</v>
@@ -5221,7 +5220,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="38">
         <v>39600</v>
       </c>
@@ -5245,7 +5244,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="18"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="38">
         <v>39630</v>
       </c>
@@ -5269,7 +5268,7 @@
         <v>39643</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="38"/>
       <c r="B77" s="18" t="s">
         <v>94</v>
@@ -5289,7 +5288,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="18"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="38">
         <v>39661</v>
       </c>
@@ -5313,7 +5312,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="18"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="38">
         <v>39692</v>
       </c>
@@ -5339,7 +5338,7 @@
         <v>39693</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="38"/>
       <c r="B80" s="18" t="s">
         <v>96</v>
@@ -5359,7 +5358,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="18"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="38">
         <v>39722</v>
       </c>
@@ -5385,7 +5384,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="38">
         <v>39753</v>
       </c>
@@ -5409,7 +5408,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="18"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="38"/>
       <c r="B83" s="18" t="s">
         <v>99</v>
@@ -5429,7 +5428,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="18"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="38">
         <v>39783</v>
       </c>
@@ -5457,7 +5456,7 @@
         <v>39787</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="38"/>
       <c r="B85" s="18" t="s">
         <v>100</v>
@@ -5477,7 +5476,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="18"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="43" t="s">
         <v>45</v>
       </c>
@@ -5499,7 +5498,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="18"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="38">
         <v>39814</v>
       </c>
@@ -5523,7 +5522,7 @@
         <v>39846</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="38"/>
       <c r="B88" s="18" t="s">
         <v>103</v>
@@ -5543,7 +5542,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="18"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="38">
         <v>39845</v>
       </c>
@@ -5567,7 +5566,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="18"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="38">
         <v>39873</v>
       </c>
@@ -5593,7 +5592,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="38"/>
       <c r="B91" s="18" t="s">
         <v>52</v>
@@ -5615,7 +5614,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="38"/>
       <c r="B92" s="18" t="s">
         <v>106</v>
@@ -5635,7 +5634,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="18"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="38">
         <v>39904</v>
       </c>
@@ -5661,7 +5660,7 @@
         <v>39910</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="38"/>
       <c r="B94" s="18" t="s">
         <v>107</v>
@@ -5681,7 +5680,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="18"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="38">
         <v>39934</v>
       </c>
@@ -5707,7 +5706,7 @@
         <v>39960</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="38"/>
       <c r="B96" s="18" t="s">
         <v>110</v>
@@ -5727,7 +5726,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="18"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="38">
         <v>39965</v>
       </c>
@@ -5753,7 +5752,7 @@
         <v>39986</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="38"/>
       <c r="B98" s="18" t="s">
         <v>57</v>
@@ -5775,7 +5774,7 @@
         <v>39993</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="38"/>
       <c r="B99" s="18" t="s">
         <v>111</v>
@@ -5795,7 +5794,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="18"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="38">
         <v>39995</v>
       </c>
@@ -5821,7 +5820,7 @@
         <v>40018</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="38"/>
       <c r="B101" s="18" t="s">
         <v>112</v>
@@ -5841,7 +5840,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="18"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="38">
         <v>40026</v>
       </c>
@@ -5867,7 +5866,7 @@
         <v>40051</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="38"/>
       <c r="B103" s="18" t="s">
         <v>113</v>
@@ -5887,7 +5886,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="18"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="38">
         <v>40057</v>
       </c>
@@ -5913,7 +5912,7 @@
         <v>40059</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="38"/>
       <c r="B105" s="18" t="s">
         <v>57</v>
@@ -5935,7 +5934,7 @@
         <v>40081</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="38"/>
       <c r="B106" s="18" t="s">
         <v>70</v>
@@ -5955,7 +5954,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="18"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="38">
         <v>40087</v>
       </c>
@@ -5981,7 +5980,7 @@
         <v>40088</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="38"/>
       <c r="B108" s="18" t="s">
         <v>114</v>
@@ -6001,7 +6000,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="18"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="38">
         <v>40118</v>
       </c>
@@ -6027,7 +6026,7 @@
         <v>40141</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="38"/>
       <c r="B110" s="18" t="s">
         <v>57</v>
@@ -6049,7 +6048,7 @@
         <v>40149</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="38"/>
       <c r="B111" s="18" t="s">
         <v>115</v>
@@ -6069,7 +6068,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="18"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="38">
         <v>40148</v>
       </c>
@@ -6093,7 +6092,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="18"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="43" t="s">
         <v>44</v>
       </c>
@@ -6115,7 +6114,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="18"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="38">
         <v>40179</v>
       </c>
@@ -6139,7 +6138,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="18"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="38">
         <v>40210</v>
       </c>
@@ -6165,7 +6164,7 @@
         <v>40211</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="38"/>
       <c r="B116" s="18" t="s">
         <v>57</v>
@@ -6187,7 +6186,7 @@
         <v>40234</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="38"/>
       <c r="B117" s="18" t="s">
         <v>59</v>
@@ -6207,7 +6206,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="18"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="38">
         <v>40238</v>
       </c>
@@ -6231,7 +6230,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="18"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="38">
         <v>40269</v>
       </c>
@@ -6257,7 +6256,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="38"/>
       <c r="B120" s="18" t="s">
         <v>121</v>
@@ -6277,7 +6276,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="18"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="38">
         <v>40299</v>
       </c>
@@ -6303,7 +6302,7 @@
         <v>40312</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="38"/>
       <c r="B122" s="18" t="s">
         <v>57</v>
@@ -6325,7 +6324,7 @@
         <v>40318</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="38"/>
       <c r="B123" s="18" t="s">
         <v>57</v>
@@ -6347,7 +6346,7 @@
         <v>40326</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="38"/>
       <c r="B124" s="18" t="s">
         <v>122</v>
@@ -6367,7 +6366,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="18"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="38">
         <v>40330</v>
       </c>
@@ -6391,7 +6390,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="18"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="38">
         <v>40360</v>
       </c>
@@ -6417,7 +6416,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="38">
         <v>40391</v>
       </c>
@@ -6443,7 +6442,7 @@
         <v>40415</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="38">
         <v>40422</v>
       </c>
@@ -6463,7 +6462,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="18"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="38">
         <v>40452</v>
       </c>
@@ -6489,7 +6488,7 @@
         <v>40459</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="38">
         <v>40483</v>
       </c>
@@ -6515,7 +6514,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="38"/>
       <c r="B131" s="18" t="s">
         <v>124</v>
@@ -6537,7 +6536,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="38">
         <v>40513</v>
       </c>
@@ -6557,7 +6556,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="18"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="43" t="s">
         <v>119</v>
       </c>
@@ -6579,7 +6578,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="18"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="38">
         <v>40544</v>
       </c>
@@ -6605,7 +6604,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="38"/>
       <c r="B135" s="18" t="s">
         <v>129</v>
@@ -6625,7 +6624,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="18"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="38">
         <v>40575</v>
       </c>
@@ -6651,7 +6650,7 @@
         <v>40576</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="38"/>
       <c r="B137" s="18" t="s">
         <v>130</v>
@@ -6673,7 +6672,7 @@
         <v>42060</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="38"/>
       <c r="B138" s="18" t="s">
         <v>131</v>
@@ -6693,7 +6692,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="18"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="38">
         <v>40603</v>
       </c>
@@ -6719,7 +6718,7 @@
         <v>40631</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="38"/>
       <c r="B140" s="18" t="s">
         <v>132</v>
@@ -6739,7 +6738,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="18"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="38">
         <v>40634</v>
       </c>
@@ -6765,7 +6764,7 @@
         <v>40639</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="38"/>
       <c r="B142" s="18" t="s">
         <v>133</v>
@@ -6785,7 +6784,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="18"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="38">
         <v>40664</v>
       </c>
@@ -6811,7 +6810,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="38"/>
       <c r="B144" s="18" t="s">
         <v>55</v>
@@ -6833,7 +6832,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="38"/>
       <c r="B145" s="18" t="s">
         <v>134</v>
@@ -6853,7 +6852,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="18"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="38">
         <v>40695</v>
       </c>
@@ -6879,7 +6878,7 @@
         <v>40704</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="38"/>
       <c r="B147" s="18" t="s">
         <v>135</v>
@@ -6899,7 +6898,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="18"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="38">
         <v>40725</v>
       </c>
@@ -6925,7 +6924,7 @@
         <v>40738</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="38"/>
       <c r="B149" s="18" t="s">
         <v>136</v>
@@ -6945,7 +6944,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="18"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="38">
         <v>40756</v>
       </c>
@@ -6969,7 +6968,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="18"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="38">
         <v>40787</v>
       </c>
@@ -6995,7 +6994,7 @@
         <v>40807</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="38"/>
       <c r="B152" s="18" t="s">
         <v>141</v>
@@ -7015,7 +7014,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="18"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="38">
         <v>40817</v>
       </c>
@@ -7035,7 +7034,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="18"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="38">
         <v>40848</v>
       </c>
@@ -7061,7 +7060,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="38"/>
       <c r="B155" s="18" t="s">
         <v>142</v>
@@ -7081,7 +7080,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="18"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="38">
         <v>40878</v>
       </c>
@@ -7105,7 +7104,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="18"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="38"/>
       <c r="B157" s="18" t="s">
         <v>143</v>
@@ -7125,7 +7124,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="18"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="43" t="s">
         <v>118</v>
       </c>
@@ -7147,7 +7146,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="18"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="38">
         <v>40909</v>
       </c>
@@ -7173,7 +7172,7 @@
         <v>40926</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="38"/>
       <c r="B160" s="18" t="s">
         <v>55</v>
@@ -7195,7 +7194,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="38">
         <v>40940</v>
       </c>
@@ -7215,7 +7214,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="18"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="38">
         <v>40969</v>
       </c>
@@ -7241,7 +7240,7 @@
         <v>40998</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="38">
         <v>41000</v>
       </c>
@@ -7267,7 +7266,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="38">
         <v>41030</v>
       </c>
@@ -7287,7 +7286,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="18"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="38">
         <v>41061</v>
       </c>
@@ -7307,7 +7306,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="18"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="38">
         <v>41091</v>
       </c>
@@ -7333,7 +7332,7 @@
         <v>41113</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="38">
         <v>41122</v>
       </c>
@@ -7353,7 +7352,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="18"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="38">
         <v>41153</v>
       </c>
@@ -7373,7 +7372,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="18"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="38">
         <v>41183</v>
       </c>
@@ -7399,7 +7398,7 @@
         <v>41206</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="38">
         <v>41214</v>
       </c>
@@ -7419,7 +7418,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="18"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="38">
         <v>41244</v>
       </c>
@@ -7443,7 +7442,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="38"/>
       <c r="B172" s="18" t="s">
         <v>124</v>
@@ -7465,7 +7464,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="43" t="s">
         <v>117</v>
       </c>
@@ -7483,7 +7482,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="18"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="38">
         <v>41275</v>
       </c>
@@ -7507,7 +7506,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="38">
         <v>41306</v>
       </c>
@@ -7533,7 +7532,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="38">
         <v>41334</v>
       </c>
@@ -7553,7 +7552,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="18"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="38">
         <v>41365</v>
       </c>
@@ -7579,7 +7578,7 @@
         <v>41369</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="38">
         <v>41395</v>
       </c>
@@ -7605,7 +7604,7 @@
         <v>41415</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="38">
         <v>41426</v>
       </c>
@@ -7625,7 +7624,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="18"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="38">
         <v>41456</v>
       </c>
@@ -7651,7 +7650,7 @@
         <v>41465</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="38">
         <v>41487</v>
       </c>
@@ -7671,7 +7670,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="18"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="38">
         <v>41518</v>
       </c>
@@ -7697,7 +7696,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="38">
         <v>41548</v>
       </c>
@@ -7717,7 +7716,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="18"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="38">
         <v>41579</v>
       </c>
@@ -7737,7 +7736,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="18"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="38">
         <v>41609</v>
       </c>
@@ -7763,7 +7762,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="43" t="s">
         <v>147</v>
       </c>
@@ -7785,7 +7784,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="18"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="38">
         <v>41640</v>
       </c>
@@ -7811,7 +7810,7 @@
         <v>41670</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="38"/>
       <c r="B188" s="18" t="s">
         <v>158</v>
@@ -7833,7 +7832,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="38">
         <v>41671</v>
       </c>
@@ -7857,7 +7856,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="18"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="38">
         <v>41699</v>
       </c>
@@ -7883,7 +7882,7 @@
         <v>41711</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="38"/>
       <c r="B191" s="18" t="s">
         <v>57</v>
@@ -7905,7 +7904,7 @@
         <v>41726</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="38"/>
       <c r="B192" s="18" t="s">
         <v>160</v>
@@ -7925,7 +7924,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="18"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="38">
         <v>41730</v>
       </c>
@@ -7951,7 +7950,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="38"/>
       <c r="B194" s="18" t="s">
         <v>161</v>
@@ -7971,7 +7970,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="18"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="38">
         <v>41760</v>
       </c>
@@ -7997,7 +7996,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="38"/>
       <c r="B196" s="18" t="s">
         <v>162</v>
@@ -8017,7 +8016,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="18"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="38">
         <v>41791</v>
       </c>
@@ -8041,7 +8040,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="18"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="38">
         <v>41821</v>
       </c>
@@ -8067,7 +8066,7 @@
         <v>41824</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="38"/>
       <c r="B199" s="18" t="s">
         <v>68</v>
@@ -8087,7 +8086,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="38"/>
       <c r="B200" s="18" t="s">
         <v>168</v>
@@ -8107,7 +8106,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="18"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="38">
         <v>41852</v>
       </c>
@@ -8131,7 +8130,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="18"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="38">
         <v>41883</v>
       </c>
@@ -8155,7 +8154,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="18"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="38">
         <v>41913</v>
       </c>
@@ -8179,7 +8178,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="18"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="38">
         <v>41944</v>
       </c>
@@ -8203,7 +8202,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="38"/>
       <c r="B205" s="18" t="s">
         <v>130</v>
@@ -8223,7 +8222,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="18"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="38"/>
       <c r="B206" s="18" t="s">
         <v>172</v>
@@ -8243,7 +8242,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="18"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="38">
         <v>41974</v>
       </c>
@@ -8271,7 +8270,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="18"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="43" t="s">
         <v>146</v>
       </c>
@@ -8293,7 +8292,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="18"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="38">
         <v>42005</v>
       </c>
@@ -8319,7 +8318,7 @@
         <v>42354</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="38"/>
       <c r="B210" s="18" t="s">
         <v>57</v>
@@ -8341,7 +8340,7 @@
         <v>42032</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="38"/>
       <c r="B211" s="18" t="s">
         <v>175</v>
@@ -8361,7 +8360,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="18"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="38">
         <v>42036</v>
       </c>
@@ -8385,7 +8384,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="18"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="38">
         <v>42064</v>
       </c>
@@ -8411,7 +8410,7 @@
         <v>42090</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="38"/>
       <c r="B214" s="18" t="s">
         <v>177</v>
@@ -8431,7 +8430,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="18"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="38">
         <v>42095</v>
       </c>
@@ -8457,7 +8456,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="38"/>
       <c r="B216" s="18" t="s">
         <v>178</v>
@@ -8477,7 +8476,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="18"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="38">
         <v>42125</v>
       </c>
@@ -8501,7 +8500,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="18"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="38">
         <v>42156</v>
       </c>
@@ -8525,7 +8524,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="18"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="38">
         <v>42186</v>
       </c>
@@ -8549,7 +8548,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="38"/>
       <c r="B220" s="18" t="s">
         <v>182</v>
@@ -8569,7 +8568,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="18"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="38">
         <v>42217</v>
       </c>
@@ -8593,7 +8592,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="18"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="38">
         <v>42248</v>
       </c>
@@ -8617,7 +8616,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="18"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="38">
         <v>42278</v>
       </c>
@@ -8641,7 +8640,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="18"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="38">
         <v>42309</v>
       </c>
@@ -8667,7 +8666,7 @@
         <v>42313</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="38"/>
       <c r="B225" s="18" t="s">
         <v>57</v>
@@ -8689,7 +8688,7 @@
         <v>42321</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="38"/>
       <c r="B226" s="18" t="s">
         <v>98</v>
@@ -8711,7 +8710,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="38"/>
       <c r="B227" s="18" t="s">
         <v>81</v>
@@ -8731,7 +8730,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="38"/>
       <c r="B228" s="18" t="s">
         <v>186</v>
@@ -8751,7 +8750,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="18"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="38">
         <v>42339</v>
       </c>
@@ -8777,7 +8776,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="43" t="s">
         <v>145</v>
       </c>
@@ -8799,7 +8798,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="18"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="38">
         <v>42370</v>
       </c>
@@ -8825,7 +8824,7 @@
         <v>42396</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="38"/>
       <c r="B232" s="18" t="s">
         <v>57</v>
@@ -8847,7 +8846,7 @@
         <v>42412</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="38">
         <v>42401</v>
       </c>
@@ -8867,7 +8866,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="18"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="38">
         <v>42430</v>
       </c>
@@ -8893,7 +8892,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="38">
         <v>42461</v>
       </c>
@@ -8913,7 +8912,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="18"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="38">
         <v>42491</v>
       </c>
@@ -8937,7 +8936,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="38"/>
       <c r="B237" s="18" t="s">
         <v>196</v>
@@ -8959,7 +8958,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="38">
         <v>42522</v>
       </c>
@@ -8979,7 +8978,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="18"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="38">
         <v>42552</v>
       </c>
@@ -8999,7 +8998,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="18"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="38">
         <v>42583</v>
       </c>
@@ -9019,7 +9018,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="18"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="38">
         <v>42614</v>
       </c>
@@ -9039,7 +9038,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="18"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="38">
         <v>42644</v>
       </c>
@@ -9059,7 +9058,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="18"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="38">
         <v>42675</v>
       </c>
@@ -9079,7 +9078,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="18"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="38">
         <v>42705</v>
       </c>
@@ -9099,7 +9098,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="18"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="43" t="s">
         <v>195</v>
       </c>
@@ -9121,7 +9120,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="18"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="38">
         <v>42736</v>
       </c>
@@ -9141,7 +9140,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="18"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="38">
         <v>42767</v>
       </c>
@@ -9165,7 +9164,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="18"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="38">
         <v>42795</v>
       </c>
@@ -9185,7 +9184,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="18"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="38">
         <v>42826</v>
       </c>
@@ -9205,7 +9204,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="18"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="38">
         <v>42856</v>
       </c>
@@ -9225,7 +9224,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="18"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="38">
         <v>42887</v>
       </c>
@@ -9245,7 +9244,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="18"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="38">
         <v>42917</v>
       </c>
@@ -9265,7 +9264,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="18"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="38">
         <v>42948</v>
       </c>
@@ -9285,7 +9284,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="18"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="38">
         <v>42979</v>
       </c>
@@ -9305,7 +9304,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="18"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="38">
         <v>43009</v>
       </c>
@@ -9325,7 +9324,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="18"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="38">
         <v>43040</v>
       </c>
@@ -9345,7 +9344,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="18"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="38">
         <v>43070</v>
       </c>
@@ -9371,7 +9370,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="38"/>
       <c r="B258" s="18" t="s">
         <v>81</v>
@@ -9391,7 +9390,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="43" t="s">
         <v>194</v>
       </c>
@@ -9409,7 +9408,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="18"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="38">
         <v>43101</v>
       </c>
@@ -9435,7 +9434,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="38">
         <v>43132</v>
       </c>
@@ -9455,7 +9454,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="18"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="38">
         <v>43160</v>
       </c>
@@ -9481,7 +9480,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="38"/>
       <c r="B263" s="18" t="s">
         <v>68</v>
@@ -9501,7 +9500,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="38">
         <v>43191</v>
       </c>
@@ -9521,7 +9520,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="18"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="38">
         <v>43221</v>
       </c>
@@ -9541,7 +9540,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="18"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="38">
         <v>43252</v>
       </c>
@@ -9561,7 +9560,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="18"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="38">
         <v>43282</v>
       </c>
@@ -9581,7 +9580,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="18"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="38">
         <v>43313</v>
       </c>
@@ -9601,7 +9600,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="18"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="38">
         <v>43344</v>
       </c>
@@ -9621,7 +9620,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="18"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="38">
         <v>43374</v>
       </c>
@@ -9641,7 +9640,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="18"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="38">
         <v>43405</v>
       </c>
@@ -9667,7 +9666,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="38">
         <v>43435</v>
       </c>
@@ -9691,7 +9690,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="18"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="43" t="s">
         <v>193</v>
       </c>
@@ -9713,7 +9712,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="18"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="38">
         <v>43466</v>
       </c>
@@ -9733,7 +9732,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="18"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="38">
         <v>43497</v>
       </c>
@@ -9753,7 +9752,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="18"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="38">
         <v>43525</v>
       </c>
@@ -9773,7 +9772,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="18"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="38">
         <v>43556</v>
       </c>
@@ -9793,7 +9792,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="18"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="38">
         <v>43586</v>
       </c>
@@ -9813,7 +9812,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="18"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="38">
         <v>43617</v>
       </c>
@@ -9833,7 +9832,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="18"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="38">
         <v>43647</v>
       </c>
@@ -9853,7 +9852,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="18"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="38">
         <v>43678</v>
       </c>
@@ -9873,7 +9872,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="18"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="38">
         <v>43709</v>
       </c>
@@ -9893,7 +9892,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="18"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="38">
         <v>43739</v>
       </c>
@@ -9913,7 +9912,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="18"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="38">
         <v>43770</v>
       </c>
@@ -9933,7 +9932,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="18"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="38">
         <v>43800</v>
       </c>
@@ -9959,7 +9958,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="43" t="s">
         <v>192</v>
       </c>
@@ -9981,7 +9980,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="18"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="38">
         <v>43831</v>
       </c>
@@ -10001,7 +10000,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="18"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="38">
         <v>43862</v>
       </c>
@@ -10025,7 +10024,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="38">
         <v>43891</v>
       </c>
@@ -10045,7 +10044,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="18"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="38">
         <v>43922</v>
       </c>
@@ -10065,7 +10064,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="18"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="38">
         <v>43952</v>
       </c>
@@ -10085,7 +10084,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="18"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="38">
         <v>43983</v>
       </c>
@@ -10109,7 +10108,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="38">
         <v>44013</v>
       </c>
@@ -10131,7 +10130,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="18"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="38"/>
       <c r="B294" s="18" t="s">
         <v>98</v>
@@ -10153,7 +10152,7 @@
         <v>44039</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="38">
         <v>44044</v>
       </c>
@@ -10173,7 +10172,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="18"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="38">
         <v>44075</v>
       </c>
@@ -10197,7 +10196,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="38">
         <v>44105</v>
       </c>
@@ -10217,7 +10216,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="18"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="38">
         <v>44136</v>
       </c>
@@ -10237,7 +10236,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="18"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="38">
         <v>44166</v>
       </c>
@@ -10261,7 +10260,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="18"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="43" t="s">
         <v>213</v>
       </c>
@@ -10283,7 +10282,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="18"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="38">
         <v>44197</v>
       </c>
@@ -10303,7 +10302,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="18"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="38">
         <v>44228</v>
       </c>
@@ -10323,7 +10322,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="18"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="38">
         <v>44256</v>
       </c>
@@ -10343,7 +10342,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="18"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="38">
         <v>44287</v>
       </c>
@@ -10367,7 +10366,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="18"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="38">
         <v>44317</v>
       </c>
@@ -10387,7 +10386,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="18"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="38">
         <v>44348</v>
       </c>
@@ -10407,7 +10406,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="18"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="38">
         <v>44378</v>
       </c>
@@ -10427,7 +10426,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="18"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="38">
         <v>44409</v>
       </c>
@@ -10447,7 +10446,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="18"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="38">
         <v>44440</v>
       </c>
@@ -10467,7 +10466,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="18"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="38">
         <v>44470</v>
       </c>
@@ -10487,7 +10486,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="18"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="38">
         <v>44501</v>
       </c>
@@ -10507,7 +10506,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="18"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="38">
         <v>44531</v>
       </c>
@@ -10531,7 +10530,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="18"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="43" t="s">
         <v>212</v>
       </c>
@@ -10553,7 +10552,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="18"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="38">
         <v>44562</v>
       </c>
@@ -10573,7 +10572,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="18"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="38">
         <v>44593</v>
       </c>
@@ -10593,7 +10592,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="18"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="38">
         <v>44621</v>
       </c>
@@ -10619,7 +10618,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="38">
         <v>44652</v>
       </c>
@@ -10645,7 +10644,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="38">
         <v>44682</v>
       </c>
@@ -10671,7 +10670,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="38"/>
       <c r="B319" s="18" t="s">
         <v>240</v>
@@ -10691,7 +10690,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="18"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="38">
         <v>44713</v>
       </c>
@@ -10717,7 +10716,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="38"/>
       <c r="B321" s="18" t="s">
         <v>235</v>
@@ -10739,7 +10738,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="38"/>
       <c r="B322" s="18" t="s">
         <v>237</v>
@@ -10759,7 +10758,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="18"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="38">
         <v>44743</v>
       </c>
@@ -10785,7 +10784,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="38"/>
       <c r="B324" s="18" t="s">
         <v>91</v>
@@ -10805,7 +10804,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="18"/>
     </row>
-    <row r="325" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="38">
         <v>44774</v>
       </c>
@@ -10831,7 +10830,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="38">
         <v>44805</v>
       </c>
@@ -10857,7 +10856,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="38"/>
       <c r="B327" s="18" t="s">
         <v>57</v>
@@ -10879,7 +10878,7 @@
         <v>44820</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="38"/>
       <c r="B328" s="18" t="s">
         <v>70</v>
@@ -10899,7 +10898,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="44"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="38">
         <v>44835</v>
       </c>
@@ -10925,7 +10924,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="38"/>
       <c r="B330" s="18" t="s">
         <v>249</v>
@@ -10947,7 +10946,7 @@
         <v>45220</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="38"/>
       <c r="B331" s="18" t="s">
         <v>250</v>
@@ -10967,7 +10966,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="44"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="38">
         <v>44866</v>
       </c>
@@ -10993,7 +10992,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="38"/>
       <c r="B333" s="18" t="s">
         <v>232</v>
@@ -11015,7 +11014,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="38"/>
       <c r="B334" s="18" t="s">
         <v>247</v>
@@ -11035,7 +11034,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="18"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="38">
         <v>44896</v>
       </c>
@@ -11061,7 +11060,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="38"/>
       <c r="B336" s="18" t="s">
         <v>57</v>
@@ -11083,7 +11082,7 @@
         <v>44902</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="38"/>
       <c r="B337" s="18" t="s">
         <v>244</v>
@@ -11105,7 +11104,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="43" t="s">
         <v>217</v>
       </c>
@@ -11123,7 +11122,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="18"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="38">
         <v>44927</v>
       </c>
@@ -11149,7 +11148,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="38"/>
       <c r="B340" s="18" t="s">
         <v>57</v>
@@ -11171,7 +11170,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="38">
         <v>44958</v>
       </c>
@@ -11195,7 +11194,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="38">
         <v>44986</v>
       </c>
@@ -11215,7 +11214,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="18"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="38">
         <v>45017</v>
       </c>
@@ -11241,7 +11240,7 @@
         <v>44988</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="38">
         <v>45047</v>
       </c>
@@ -11267,7 +11266,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="38">
         <v>45078</v>
       </c>
@@ -11293,7 +11292,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="38"/>
       <c r="B346" s="18" t="s">
         <v>55</v>
@@ -11315,7 +11314,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="38"/>
       <c r="B347" s="18" t="s">
         <v>105</v>
@@ -11337,7 +11336,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="38">
         <v>45108</v>
       </c>
@@ -11361,7 +11360,7 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="38">
         <v>45139</v>
       </c>
@@ -11387,7 +11386,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="38">
         <v>45170</v>
       </c>
@@ -11413,7 +11412,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="38">
         <v>45200</v>
       </c>
@@ -11439,7 +11438,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="38"/>
       <c r="B352" s="18" t="s">
         <v>57</v>
@@ -11461,7 +11460,7 @@
         <v>45211</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="38"/>
       <c r="B353" s="18" t="s">
         <v>52</v>
@@ -11483,7 +11482,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="38"/>
       <c r="B354" s="18" t="s">
         <v>57</v>
@@ -11505,7 +11504,7 @@
         <v>45230</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="38">
         <v>45231</v>
       </c>
@@ -11531,7 +11530,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="38"/>
       <c r="B356" s="18" t="s">
         <v>105</v>
@@ -11550,7 +11549,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="38">
         <v>45261</v>
       </c>
@@ -11570,7 +11569,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="18"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="43" t="s">
         <v>257</v>
       </c>
@@ -11588,7 +11587,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="18"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="38">
         <v>45292</v>
       </c>
@@ -11614,7 +11613,7 @@
         <v>45303</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="38">
         <v>45323</v>
       </c>
@@ -11636,11 +11635,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A361" s="38">
-        <v>45352</v>
-      </c>
-      <c r="B361" s="18"/>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A361" s="38"/>
+      <c r="B361" s="18" t="s">
+        <v>57</v>
+      </c>
       <c r="C361" s="12"/>
       <c r="D361" s="37"/>
       <c r="E361" s="9"/>
@@ -11649,14 +11648,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H361" s="37"/>
+      <c r="H361" s="37">
+        <v>1</v>
+      </c>
       <c r="I361" s="9"/>
       <c r="J361" s="11"/>
-      <c r="K361" s="18"/>
-    </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K361" s="44">
+        <v>45329</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="38">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B362" s="18"/>
       <c r="C362" s="12"/>
@@ -11672,9 +11675,9 @@
       <c r="J362" s="11"/>
       <c r="K362" s="18"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="38">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B363" s="18"/>
       <c r="C363" s="12"/>
@@ -11690,9 +11693,9 @@
       <c r="J363" s="11"/>
       <c r="K363" s="18"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="38">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B364" s="18"/>
       <c r="C364" s="12"/>
@@ -11708,9 +11711,9 @@
       <c r="J364" s="11"/>
       <c r="K364" s="18"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="38">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B365" s="18"/>
       <c r="C365" s="12"/>
@@ -11726,9 +11729,9 @@
       <c r="J365" s="11"/>
       <c r="K365" s="18"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="38">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B366" s="18"/>
       <c r="C366" s="12"/>
@@ -11744,9 +11747,9 @@
       <c r="J366" s="11"/>
       <c r="K366" s="18"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="38">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B367" s="18"/>
       <c r="C367" s="12"/>
@@ -11762,9 +11765,9 @@
       <c r="J367" s="11"/>
       <c r="K367" s="18"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="38">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B368" s="18"/>
       <c r="C368" s="12"/>
@@ -11780,9 +11783,9 @@
       <c r="J368" s="11"/>
       <c r="K368" s="18"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="38">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B369" s="18"/>
       <c r="C369" s="12"/>
@@ -11798,9 +11801,9 @@
       <c r="J369" s="11"/>
       <c r="K369" s="18"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="38">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B370" s="18"/>
       <c r="C370" s="12"/>
@@ -11815,6 +11818,24 @@
       <c r="I370" s="9"/>
       <c r="J370" s="11"/>
       <c r="K370" s="18"/>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A371" s="38">
+        <v>45627</v>
+      </c>
+      <c r="B371" s="18"/>
+      <c r="C371" s="12"/>
+      <c r="D371" s="37"/>
+      <c r="E371" s="9"/>
+      <c r="F371" s="18"/>
+      <c r="G371" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H371" s="37"/>
+      <c r="I371" s="9"/>
+      <c r="J371" s="11"/>
+      <c r="K371" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11831,10 +11852,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11857,7 +11878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -11865,21 +11886,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="35" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="35" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="57" t="s">
         <v>33</v>
       </c>
@@ -11892,7 +11913,7 @@
       <c r="K1" s="58"/>
       <c r="L1" s="58"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>24</v>
       </c>
@@ -11921,7 +11942,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1.25</v>
       </c>
@@ -11951,17 +11972,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="31"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
         <v>227</v>
       </c>
@@ -11985,10 +12006,10 @@
       <c r="K6" s="58"/>
       <c r="L6" s="58"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="46">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>184.04499999999993</v>
+        <v>183.04499999999993</v>
       </c>
       <c r="C7" s="35">
         <v>1</v>
@@ -12016,7 +12037,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="35">
         <v>2</v>
       </c>
@@ -12042,7 +12063,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="35">
         <v>3</v>
       </c>
@@ -12068,7 +12089,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="35">
         <v>4</v>
       </c>
@@ -12094,7 +12115,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="35">
         <v>5</v>
       </c>
@@ -12120,7 +12141,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="35">
         <v>6</v>
       </c>
@@ -12146,7 +12167,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="35">
         <v>7</v>
       </c>
@@ -12172,7 +12193,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="35">
         <v>8</v>
       </c>
@@ -12198,7 +12219,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="35">
         <v>9</v>
       </c>
@@ -12218,7 +12239,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="35">
         <v>10</v>
       </c>
@@ -12238,7 +12259,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="35">
         <v>11</v>
       </c>
@@ -12258,7 +12279,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="35">
         <v>12</v>
       </c>
@@ -12279,7 +12300,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="35">
         <v>13</v>
       </c>
@@ -12300,7 +12321,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="35">
         <v>14</v>
       </c>
@@ -12321,7 +12342,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="35">
         <v>15</v>
       </c>
@@ -12342,7 +12363,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="35">
         <v>16</v>
       </c>
@@ -12363,7 +12384,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="35">
         <v>17</v>
       </c>
@@ -12384,7 +12405,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="35">
         <v>18</v>
       </c>
@@ -12405,7 +12426,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="35">
         <v>19</v>
       </c>
@@ -12426,7 +12447,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="35">
         <v>20</v>
       </c>
@@ -12447,7 +12468,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="35">
         <v>21</v>
       </c>
@@ -12468,7 +12489,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="35">
         <v>22</v>
       </c>
@@ -12489,7 +12510,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="35">
         <v>23</v>
       </c>
@@ -12510,7 +12531,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="35">
         <v>24</v>
       </c>
@@ -12531,7 +12552,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="35">
         <v>25</v>
       </c>
@@ -12552,7 +12573,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="35">
         <v>26</v>
       </c>
@@ -12573,7 +12594,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="35">
         <v>27</v>
       </c>
@@ -12594,7 +12615,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="35">
         <v>28</v>
       </c>
@@ -12615,7 +12636,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="35">
         <v>29</v>
       </c>
@@ -12636,7 +12657,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="35">
         <v>30</v>
       </c>
@@ -12657,7 +12678,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="35">
         <v>31</v>
       </c>
@@ -12678,7 +12699,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="35">
         <v>32</v>
       </c>
@@ -12687,7 +12708,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="35">
         <v>33</v>
       </c>
@@ -12696,7 +12717,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="35">
         <v>34</v>
       </c>
@@ -12705,7 +12726,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="35">
         <v>35</v>
       </c>
@@ -12714,7 +12735,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="35">
         <v>36</v>
       </c>
@@ -12723,7 +12744,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="35">
         <v>37</v>
       </c>
@@ -12732,7 +12753,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="35">
         <v>38</v>
       </c>
@@ -12741,7 +12762,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="35">
         <v>39</v>
       </c>
@@ -12750,7 +12771,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="35">
         <v>40</v>
       </c>
@@ -12759,7 +12780,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="35">
         <v>41</v>
       </c>
@@ -12768,7 +12789,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="35">
         <v>42</v>
       </c>
@@ -12777,7 +12798,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="35">
         <v>43</v>
       </c>
@@ -12786,7 +12807,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="35">
         <v>44</v>
       </c>
@@ -12795,7 +12816,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="35">
         <v>45</v>
       </c>
@@ -12804,7 +12825,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="35">
         <v>46</v>
       </c>
@@ -12813,7 +12834,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="35">
         <v>47</v>
       </c>
@@ -12822,7 +12843,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="35">
         <v>48</v>
       </c>
@@ -12831,7 +12852,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="35">
         <v>49</v>
       </c>
@@ -12840,7 +12861,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="35">
         <v>50</v>
       </c>
@@ -12849,7 +12870,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="35">
         <v>51</v>
       </c>
@@ -12858,7 +12879,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="35">
         <v>52</v>
       </c>
@@ -12867,7 +12888,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="35">
         <v>53</v>
       </c>
@@ -12876,7 +12897,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="35">
         <v>54</v>
       </c>
@@ -12885,7 +12906,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="35">
         <v>55</v>
       </c>
@@ -12894,7 +12915,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="35">
         <v>56</v>
       </c>
@@ -12903,7 +12924,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="35">
         <v>57</v>
       </c>
@@ -12912,7 +12933,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="35">
         <v>58</v>
       </c>
@@ -12921,7 +12942,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="35">
         <v>59</v>
       </c>
@@ -12930,7 +12951,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="35">
         <v>60</v>
       </c>
@@ -12939,7 +12960,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
